--- a/Alchemy/data/LetterFreq.xlsx
+++ b/Alchemy/data/LetterFreq.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alchemy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reverie\Source\Repos\CBREngine\Alchemy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11610" tabRatio="781" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11610" tabRatio="781" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="High Knockback Spells" sheetId="7" r:id="rId6"/>
     <sheet name="High Recoil Spells" sheetId="8" r:id="rId7"/>
     <sheet name="Names to Credit" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="147">
   <si>
     <t>a</t>
   </si>
@@ -374,6 +375,105 @@
   <si>
     <t>quake</t>
   </si>
+  <si>
+    <t>Letter:</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>AOE</t>
+  </si>
+  <si>
+    <t>Knockback</t>
+  </si>
+  <si>
+    <t>Recoil</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
 </sst>
 </file>
 
@@ -941,11 +1041,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="38762576"/>
-        <c:axId val="38769648"/>
+        <c:axId val="-911618896"/>
+        <c:axId val="-911623792"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="38769648"/>
+        <c:axId val="-911623792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,12 +1096,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38762576"/>
+        <c:crossAx val="-911618896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="38762576"/>
+        <c:axId val="-911618896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38769648"/>
+        <c:crossAx val="-911623792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1418,11 +1518,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="2050305616"/>
-        <c:axId val="1953567552"/>
+        <c:axId val="-907826336"/>
+        <c:axId val="-907818176"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="1953567552"/>
+        <c:axId val="-907818176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,12 +1573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050305616"/>
+        <c:crossAx val="-907826336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2050305616"/>
+        <c:axId val="-907826336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953567552"/>
+        <c:crossAx val="-907818176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2062,11 +2162,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="2050299632"/>
-        <c:axId val="2050303984"/>
+        <c:axId val="-907829056"/>
+        <c:axId val="-907829600"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="2050303984"/>
+        <c:axId val="-907829600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,12 +2217,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050299632"/>
+        <c:crossAx val="-907829056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2050299632"/>
+        <c:axId val="-907829056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050303984"/>
+        <c:crossAx val="-907829600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2539,11 +2639,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="2108570784"/>
-        <c:axId val="2050301264"/>
+        <c:axId val="-907827968"/>
+        <c:axId val="-907821984"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="2050301264"/>
+        <c:axId val="-907821984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,12 +2694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108570784"/>
+        <c:crossAx val="-907827968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2108570784"/>
+        <c:axId val="-907827968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050301264"/>
+        <c:crossAx val="-907821984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3183,11 +3283,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="1920456640"/>
-        <c:axId val="2108576224"/>
+        <c:axId val="-907820896"/>
+        <c:axId val="-907822528"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="2108576224"/>
+        <c:axId val="-907822528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3238,12 +3338,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1920456640"/>
+        <c:crossAx val="-907820896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1920456640"/>
+        <c:axId val="-907820896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3286,7 +3386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108576224"/>
+        <c:crossAx val="-907822528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3660,11 +3760,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="42408768"/>
-        <c:axId val="42408224"/>
+        <c:axId val="-907052864"/>
+        <c:axId val="-907055584"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="42408224"/>
+        <c:axId val="-907055584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3715,12 +3815,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42408768"/>
+        <c:crossAx val="-907052864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="42408768"/>
+        <c:axId val="-907052864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,7 +3863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42408224"/>
+        <c:crossAx val="-907055584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4105,11 +4205,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="38764208"/>
-        <c:axId val="38759856"/>
+        <c:axId val="-911618352"/>
+        <c:axId val="-911631952"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="38759856"/>
+        <c:axId val="-911631952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,12 +4260,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38764208"/>
+        <c:crossAx val="-911618352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="38764208"/>
+        <c:axId val="-911618352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,7 +4308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38759856"/>
+        <c:crossAx val="-911631952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4749,11 +4849,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="38761488"/>
-        <c:axId val="38768016"/>
+        <c:axId val="-911622160"/>
+        <c:axId val="-911631408"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="38768016"/>
+        <c:axId val="-911631408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,12 +4904,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38761488"/>
+        <c:crossAx val="-911622160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="38761488"/>
+        <c:axId val="-911622160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4852,7 +4952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38768016"/>
+        <c:crossAx val="-911631408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5226,11 +5326,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="38764752"/>
-        <c:axId val="38765296"/>
+        <c:axId val="-911625968"/>
+        <c:axId val="-911627600"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="38765296"/>
+        <c:axId val="-911627600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5281,12 +5381,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38764752"/>
+        <c:crossAx val="-911625968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="38764752"/>
+        <c:axId val="-911625968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5329,7 +5429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38765296"/>
+        <c:crossAx val="-911627600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5870,11 +5970,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="38766928"/>
-        <c:axId val="38765840"/>
+        <c:axId val="-911621072"/>
+        <c:axId val="-911624880"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="38765840"/>
+        <c:axId val="-911624880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5925,12 +6025,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38766928"/>
+        <c:crossAx val="-911621072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="38766928"/>
+        <c:axId val="-911621072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5973,7 +6073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38765840"/>
+        <c:crossAx val="-911624880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6347,11 +6447,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="38771280"/>
-        <c:axId val="38770192"/>
+        <c:axId val="-907827424"/>
+        <c:axId val="-1140204080"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="38770192"/>
+        <c:axId val="-1140204080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6402,12 +6502,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38771280"/>
+        <c:crossAx val="-907827424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="38771280"/>
+        <c:axId val="-907827424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6450,7 +6550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38770192"/>
+        <c:crossAx val="-1140204080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6991,11 +7091,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="38773456"/>
-        <c:axId val="38772912"/>
+        <c:axId val="-907816544"/>
+        <c:axId val="-907819264"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="38772912"/>
+        <c:axId val="-907819264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7046,12 +7146,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38773456"/>
+        <c:crossAx val="-907816544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="38773456"/>
+        <c:axId val="-907816544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7094,7 +7194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38772912"/>
+        <c:crossAx val="-907819264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7468,11 +7568,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="1953568096"/>
-        <c:axId val="1953563744"/>
+        <c:axId val="-907815456"/>
+        <c:axId val="-907824704"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="1953563744"/>
+        <c:axId val="-907824704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7523,12 +7623,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953568096"/>
+        <c:crossAx val="-907815456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1953568096"/>
+        <c:axId val="-907815456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7571,7 +7671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953563744"/>
+        <c:crossAx val="-907824704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8112,11 +8212,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="1953561568"/>
-        <c:axId val="1953576800"/>
+        <c:axId val="-907825792"/>
+        <c:axId val="-907817632"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="1953576800"/>
+        <c:axId val="-907817632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8167,12 +8267,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953561568"/>
+        <c:crossAx val="-907825792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1953561568"/>
+        <c:axId val="-907825792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8215,7 +8315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953576800"/>
+        <c:crossAx val="-907817632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17034,7 +17134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -20441,7 +20541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -21184,4 +21284,796 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <f>'High Damage Spells'!D1  / 'High Damage Spells'!E1</f>
+        <v>0.76899908360942526</v>
+      </c>
+      <c r="C2">
+        <f>'High Duration Spells'!D1  / 'High Duration Spells'!E1</f>
+        <v>1.1071268213773888</v>
+      </c>
+      <c r="D2">
+        <f>'High Instance Spells'!D1  / 'High Instance Spells'!E1</f>
+        <v>0.62448480003996698</v>
+      </c>
+      <c r="E2">
+        <f>'AOE Spells'!D1  / 'AOE Spells'!E1</f>
+        <v>1.3752698967172305</v>
+      </c>
+      <c r="F2">
+        <f>'High Knockback Spells'!D1  / 'High Knockback Spells'!E1</f>
+        <v>0.90188752174193121</v>
+      </c>
+      <c r="G2">
+        <f>'High Recoil Spells'!D1  / 'High Recoil Spells'!E1</f>
+        <v>0.78604875748149983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <f>'High Damage Spells'!D2  / 'High Damage Spells'!E2</f>
+        <v>2.1082961453318809</v>
+      </c>
+      <c r="C3">
+        <f>'High Duration Spells'!D2  / 'High Duration Spells'!E2</f>
+        <v>1.0117702606994705</v>
+      </c>
+      <c r="D3">
+        <f>'High Instance Spells'!D2  / 'High Instance Spells'!E2</f>
+        <v>1.3696753869332969</v>
+      </c>
+      <c r="E3">
+        <f>'AOE Spells'!D2  / 'AOE Spells'!E2</f>
+        <v>0.75409094336777016</v>
+      </c>
+      <c r="F3">
+        <f>'High Knockback Spells'!D2  / 'High Knockback Spells'!E2</f>
+        <v>0.70646414694454251</v>
+      </c>
+      <c r="G3">
+        <f>'High Recoil Spells'!D2  / 'High Recoil Spells'!E2</f>
+        <v>1.8471768979742629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4">
+        <f>'High Damage Spells'!D3  / 'High Damage Spells'!E3</f>
+        <v>0.75332404233681127</v>
+      </c>
+      <c r="C4">
+        <f>'High Duration Spells'!D3  / 'High Duration Spells'!E3</f>
+        <v>1.0845594880879217</v>
+      </c>
+      <c r="D4">
+        <f>'High Instance Spells'!D3  / 'High Instance Spells'!E3</f>
+        <v>1.101159888415798</v>
+      </c>
+      <c r="E4">
+        <f>'AOE Spells'!D3  / 'AOE Spells'!E3</f>
+        <v>1.2125131355589687</v>
+      </c>
+      <c r="F4">
+        <f>'High Knockback Spells'!D3  / 'High Knockback Spells'!E3</f>
+        <v>1.135933358576297</v>
+      </c>
+      <c r="G4">
+        <f>'High Recoil Spells'!D3  / 'High Recoil Spells'!E3</f>
+        <v>0.9900336611444791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <f>'High Damage Spells'!D4  / 'High Damage Spells'!E4</f>
+        <v>0.61595318755774553</v>
+      </c>
+      <c r="C5">
+        <f>'High Duration Spells'!D4  / 'High Duration Spells'!E4</f>
+        <v>1.0641442506650902</v>
+      </c>
+      <c r="D5">
+        <f>'High Instance Spells'!D4  / 'High Instance Spells'!E4</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>'AOE Spells'!D4  / 'AOE Spells'!E4</f>
+        <v>0.52875082617316593</v>
+      </c>
+      <c r="F5">
+        <f>'High Knockback Spells'!D4  / 'High Knockback Spells'!E4</f>
+        <v>1.2383900928792568</v>
+      </c>
+      <c r="G5">
+        <f>'High Recoil Spells'!D4  / 'High Recoil Spells'!E4</f>
+        <v>0.43173232595790612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <f>'High Damage Spells'!D5  / 'High Damage Spells'!E5</f>
+        <v>0.82450426680958078</v>
+      </c>
+      <c r="C6">
+        <f>'High Duration Spells'!D5  / 'High Duration Spells'!E5</f>
+        <v>0.7122225299726983</v>
+      </c>
+      <c r="D6">
+        <f>'High Instance Spells'!D5  / 'High Instance Spells'!E5</f>
+        <v>0.56242969628796402</v>
+      </c>
+      <c r="E6">
+        <f>'AOE Spells'!D5  / 'AOE Spells'!E5</f>
+        <v>0.53083252233920197</v>
+      </c>
+      <c r="F6">
+        <f>'High Knockback Spells'!D5  / 'High Knockback Spells'!E5</f>
+        <v>0.82884376295068374</v>
+      </c>
+      <c r="G6">
+        <f>'High Recoil Spells'!D5  / 'High Recoil Spells'!E5</f>
+        <v>0.79462544246189415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <f>'High Damage Spells'!D6  / 'High Damage Spells'!E6</f>
+        <v>1.6434625407930878</v>
+      </c>
+      <c r="C7">
+        <f>'High Duration Spells'!D6  / 'High Duration Spells'!E6</f>
+        <v>1.802735651350925</v>
+      </c>
+      <c r="D7">
+        <f>'High Instance Spells'!D6  / 'High Instance Spells'!E6</f>
+        <v>1.3727464079802323</v>
+      </c>
+      <c r="E7">
+        <f>'AOE Spells'!D6  / 'AOE Spells'!E6</f>
+        <v>0.75578173023630768</v>
+      </c>
+      <c r="F7">
+        <f>'High Knockback Spells'!D6  / 'High Knockback Spells'!E6</f>
+        <v>0.94406419636535277</v>
+      </c>
+      <c r="G7">
+        <f>'High Recoil Spells'!D6  / 'High Recoil Spells'!E6</f>
+        <v>0.82280824453861034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <f>'High Damage Spells'!D7  / 'High Damage Spells'!E7</f>
+        <v>2.3326940023845317</v>
+      </c>
+      <c r="C8">
+        <f>'High Duration Spells'!D7  / 'High Duration Spells'!E7</f>
+        <v>1.7413801681675707</v>
+      </c>
+      <c r="D8">
+        <f>'High Instance Spells'!D7  / 'High Instance Spells'!E7</f>
+        <v>2.5257627803596687</v>
+      </c>
+      <c r="E8">
+        <f>'AOE Spells'!D7  / 'AOE Spells'!E7</f>
+        <v>1.6687061964623426</v>
+      </c>
+      <c r="F8">
+        <f>'High Knockback Spells'!D7  / 'High Knockback Spells'!E7</f>
+        <v>1.5633142261594581</v>
+      </c>
+      <c r="G8">
+        <f>'High Recoil Spells'!D7  / 'High Recoil Spells'!E7</f>
+        <v>0.45417385775274777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <f>'High Damage Spells'!D8  / 'High Damage Spells'!E8</f>
+        <v>0.51582286642766872</v>
+      </c>
+      <c r="C9">
+        <f>'High Duration Spells'!D8  / 'High Duration Spells'!E8</f>
+        <v>0.41257189065194616</v>
+      </c>
+      <c r="D9">
+        <f>'High Instance Spells'!D8  / 'High Instance Spells'!E8</f>
+        <v>0.50266411983512616</v>
+      </c>
+      <c r="E9">
+        <f>'AOE Spells'!D8  / 'AOE Spells'!E8</f>
+        <v>0.83024298444678135</v>
+      </c>
+      <c r="F9">
+        <f>'High Knockback Spells'!D8  / 'High Knockback Spells'!E8</f>
+        <v>0.51853772361939332</v>
+      </c>
+      <c r="G9">
+        <f>'High Recoil Spells'!D8  / 'High Recoil Spells'!E8</f>
+        <v>0.75322758018107594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <f>'High Damage Spells'!D9  / 'High Damage Spells'!E9</f>
+        <v>1.9530223020123643</v>
+      </c>
+      <c r="C10">
+        <f>'High Duration Spells'!D9  / 'High Duration Spells'!E9</f>
+        <v>1.2256403971074885</v>
+      </c>
+      <c r="D10">
+        <f>'High Instance Spells'!D9  / 'High Instance Spells'!E9</f>
+        <v>1.4640002342400376</v>
+      </c>
+      <c r="E10">
+        <f>'AOE Spells'!D9  / 'AOE Spells'!E9</f>
+        <v>1.2090339013105929</v>
+      </c>
+      <c r="F10">
+        <f>'High Knockback Spells'!D9  / 'High Knockback Spells'!E9</f>
+        <v>1.0571622744091216</v>
+      </c>
+      <c r="G10">
+        <f>'High Recoil Spells'!D9  / 'High Recoil Spells'!E9</f>
+        <v>1.0530056730680637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <f>'High Damage Spells'!D10  / 'High Damage Spells'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>'High Duration Spells'!D10  / 'High Duration Spells'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>'High Instance Spells'!D10  / 'High Instance Spells'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>'AOE Spells'!D10  / 'AOE Spells'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>'High Knockback Spells'!D10  / 'High Knockback Spells'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>'High Recoil Spells'!D10  / 'High Recoil Spells'!E10</f>
+        <v>6.1162079510703373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <f>'High Damage Spells'!D11  / 'High Damage Spells'!E11</f>
+        <v>2.0398449717821445</v>
+      </c>
+      <c r="C12">
+        <f>'High Duration Spells'!D11  / 'High Duration Spells'!E11</f>
+        <v>0.65261371794035106</v>
+      </c>
+      <c r="D12">
+        <f>'High Instance Spells'!D11  / 'High Instance Spells'!E11</f>
+        <v>1.3252054068380599</v>
+      </c>
+      <c r="E12">
+        <f>'AOE Spells'!D11  / 'AOE Spells'!E11</f>
+        <v>0.72960747118050495</v>
+      </c>
+      <c r="F12">
+        <f>'High Knockback Spells'!D11  / 'High Knockback Spells'!E11</f>
+        <v>1.367053998632946</v>
+      </c>
+      <c r="G12">
+        <f>'High Recoil Spells'!D11  / 'High Recoil Spells'!E11</f>
+        <v>2.3829381627546766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <f>'High Damage Spells'!D12  / 'High Damage Spells'!E12</f>
+        <v>2.338482324971094</v>
+      </c>
+      <c r="C13">
+        <f>'High Duration Spells'!D12  / 'High Duration Spells'!E12</f>
+        <v>2.4938588725264039</v>
+      </c>
+      <c r="D13">
+        <f>'High Instance Spells'!D12  / 'High Instance Spells'!E12</f>
+        <v>1.2660150908998835</v>
+      </c>
+      <c r="E13">
+        <f>'AOE Spells'!D12  / 'AOE Spells'!E12</f>
+        <v>1.8122508155128667</v>
+      </c>
+      <c r="F13">
+        <f>'High Knockback Spells'!D12  / 'High Knockback Spells'!E12</f>
+        <v>1.0447956118584301</v>
+      </c>
+      <c r="G13">
+        <f>'High Recoil Spells'!D12  / 'High Recoil Spells'!E12</f>
+        <v>1.3659025200901496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <f>'High Damage Spells'!D13  / 'High Damage Spells'!E13</f>
+        <v>1.7379592014077467</v>
+      </c>
+      <c r="C14">
+        <f>'High Duration Spells'!D13  / 'High Duration Spells'!E13</f>
+        <v>1.4595800579661795</v>
+      </c>
+      <c r="D14">
+        <f>'High Instance Spells'!D13  / 'High Instance Spells'!E13</f>
+        <v>3.8106528918621394</v>
+      </c>
+      <c r="E14">
+        <f>'AOE Spells'!D13  / 'AOE Spells'!E13</f>
+        <v>1.6317777052543241</v>
+      </c>
+      <c r="F14">
+        <f>'High Knockback Spells'!D13  / 'High Knockback Spells'!E13</f>
+        <v>0.8735531775496832</v>
+      </c>
+      <c r="G14">
+        <f>'High Recoil Spells'!D13  / 'High Recoil Spells'!E13</f>
+        <v>1.5227073737104573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <f>'High Damage Spells'!D14  / 'High Damage Spells'!E14</f>
+        <v>0.77564475470234628</v>
+      </c>
+      <c r="C15">
+        <f>'High Duration Spells'!D14  / 'High Duration Spells'!E14</f>
+        <v>0.96780197282709846</v>
+      </c>
+      <c r="D15">
+        <f>'High Instance Spells'!D14  / 'High Instance Spells'!E14</f>
+        <v>1.0582010582010581</v>
+      </c>
+      <c r="E15">
+        <f>'AOE Spells'!D14  / 'AOE Spells'!E14</f>
+        <v>0.99875156054931324</v>
+      </c>
+      <c r="F15">
+        <f>'High Knockback Spells'!D14  / 'High Knockback Spells'!E14</f>
+        <v>1.0916179337231968</v>
+      </c>
+      <c r="G15">
+        <f>'High Recoil Spells'!D14  / 'High Recoil Spells'!E14</f>
+        <v>1.2232415902140674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16">
+        <f>'High Damage Spells'!D15  / 'High Damage Spells'!E15</f>
+        <v>0.62743567041501391</v>
+      </c>
+      <c r="C16">
+        <f>'High Duration Spells'!D15  / 'High Duration Spells'!E15</f>
+        <v>1.3382491686127043</v>
+      </c>
+      <c r="D16">
+        <f>'High Instance Spells'!D15  / 'High Instance Spells'!E15</f>
+        <v>0.81523954455284109</v>
+      </c>
+      <c r="E16">
+        <f>'AOE Spells'!D15  / 'AOE Spells'!E15</f>
+        <v>0.6732596238722901</v>
+      </c>
+      <c r="F16">
+        <f>'High Knockback Spells'!D15  / 'High Knockback Spells'!E15</f>
+        <v>0.8409839512229309</v>
+      </c>
+      <c r="G16">
+        <f>'High Recoil Spells'!D15  / 'High Recoil Spells'!E15</f>
+        <v>0.9772902185465252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17">
+        <f>'High Damage Spells'!D16  / 'High Damage Spells'!E16</f>
+        <v>0.27127471990885171</v>
+      </c>
+      <c r="C17">
+        <f>'High Duration Spells'!D16  / 'High Duration Spells'!E16</f>
+        <v>1.3018460176530322</v>
+      </c>
+      <c r="D17">
+        <f>'High Instance Spells'!D16  / 'High Instance Spells'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>'AOE Spells'!D16  / 'AOE Spells'!E16</f>
+        <v>2.0376084298771615</v>
+      </c>
+      <c r="F17">
+        <f>'High Knockback Spells'!D16  / 'High Knockback Spells'!E16</f>
+        <v>0.54540496318516496</v>
+      </c>
+      <c r="G17">
+        <f>'High Recoil Spells'!D16  / 'High Recoil Spells'!E16</f>
+        <v>0.47535294956505209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18">
+        <f>'High Damage Spells'!D17  / 'High Damage Spells'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>'High Duration Spells'!D17  / 'High Duration Spells'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>'High Instance Spells'!D17  / 'High Instance Spells'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>'AOE Spells'!D17  / 'AOE Spells'!E17</f>
+        <v>5.617977528089888</v>
+      </c>
+      <c r="F18">
+        <f>'High Knockback Spells'!D17  / 'High Knockback Spells'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>'High Recoil Spells'!D17  / 'High Recoil Spells'!E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19">
+        <f>'High Damage Spells'!D18  / 'High Damage Spells'!E18</f>
+        <v>1.3110856663374384</v>
+      </c>
+      <c r="C19">
+        <f>'High Duration Spells'!D18  / 'High Duration Spells'!E18</f>
+        <v>0.83891913658442463</v>
+      </c>
+      <c r="D19">
+        <f>'High Instance Spells'!D18  / 'High Instance Spells'!E18</f>
+        <v>1.0221116827365335</v>
+      </c>
+      <c r="E19">
+        <f>'AOE Spells'!D18  / 'AOE Spells'!E18</f>
+        <v>1.1254712911031493</v>
+      </c>
+      <c r="F19">
+        <f>'High Knockback Spells'!D18  / 'High Knockback Spells'!E18</f>
+        <v>1.7573148229505313</v>
+      </c>
+      <c r="G19">
+        <f>'High Recoil Spells'!D18  / 'High Recoil Spells'!E18</f>
+        <v>1.5316046622045918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20">
+        <f>'High Damage Spells'!D19  / 'High Damage Spells'!E19</f>
+        <v>0.66168746846645654</v>
+      </c>
+      <c r="C20">
+        <f>'High Duration Spells'!D19  / 'High Duration Spells'!E19</f>
+        <v>0.95263045083236075</v>
+      </c>
+      <c r="D20">
+        <f>'High Instance Spells'!D19  / 'High Instance Spells'!E19</f>
+        <v>2.2568269013766642</v>
+      </c>
+      <c r="E20">
+        <f>'AOE Spells'!D19  / 'AOE Spells'!E19</f>
+        <v>1.508777535190017</v>
+      </c>
+      <c r="F20">
+        <f>'High Knockback Spells'!D19  / 'High Knockback Spells'!E19</f>
+        <v>1.1640475596574373</v>
+      </c>
+      <c r="G20">
+        <f>'High Recoil Spells'!D19  / 'High Recoil Spells'!E19</f>
+        <v>1.1594707016247083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21">
+        <f>'High Damage Spells'!D20  / 'High Damage Spells'!E20</f>
+        <v>0.75124533361071621</v>
+      </c>
+      <c r="C21">
+        <f>'High Duration Spells'!D20  / 'High Duration Spells'!E20</f>
+        <v>0.83197444174514945</v>
+      </c>
+      <c r="D21">
+        <f>'High Instance Spells'!D20  / 'High Instance Spells'!E20</f>
+        <v>0.6757669955399378</v>
+      </c>
+      <c r="E21">
+        <f>'AOE Spells'!D20  / 'AOE Spells'!E20</f>
+        <v>0.68209440186521808</v>
+      </c>
+      <c r="F21">
+        <f>'High Knockback Spells'!D20  / 'High Knockback Spells'!E20</f>
+        <v>0.69710700592540953</v>
+      </c>
+      <c r="G21">
+        <f>'High Recoil Spells'!D20  / 'High Recoil Spells'!E20</f>
+        <v>1.1138789314863196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22">
+        <f>'High Damage Spells'!D21  / 'High Damage Spells'!E21</f>
+        <v>0.37939145610440855</v>
+      </c>
+      <c r="C22">
+        <f>'High Duration Spells'!D21  / 'High Duration Spells'!E21</f>
+        <v>0.54620930740659823</v>
+      </c>
+      <c r="D22">
+        <f>'High Instance Spells'!D21  / 'High Instance Spells'!E21</f>
+        <v>1.4788524105294294</v>
+      </c>
+      <c r="E22">
+        <f>'AOE Spells'!D21  / 'AOE Spells'!E21</f>
+        <v>1.0177495521901969</v>
+      </c>
+      <c r="F22">
+        <f>'High Knockback Spells'!D21  / 'High Knockback Spells'!E21</f>
+        <v>2.2883295194508011</v>
+      </c>
+      <c r="G22">
+        <f>'High Recoil Spells'!D21  / 'High Recoil Spells'!E21</f>
+        <v>0.99720781810929415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23">
+        <f>'High Damage Spells'!D22  / 'High Damage Spells'!E22</f>
+        <v>0.53424511165722832</v>
+      </c>
+      <c r="C23">
+        <f>'High Duration Spells'!D22  / 'High Duration Spells'!E22</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>'High Instance Spells'!D22  / 'High Instance Spells'!E22</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>'AOE Spells'!D22  / 'AOE Spells'!E22</f>
+        <v>1.1465260261407935</v>
+      </c>
+      <c r="F23">
+        <f>'High Knockback Spells'!D22  / 'High Knockback Spells'!E22</f>
+        <v>1.0741138560687433</v>
+      </c>
+      <c r="G23">
+        <f>'High Recoil Spells'!D22  / 'High Recoil Spells'!E22</f>
+        <v>0.93615427822505159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24">
+        <f>'High Damage Spells'!D23  / 'High Damage Spells'!E23</f>
+        <v>1.1092377318306859</v>
+      </c>
+      <c r="C24">
+        <f>'High Duration Spells'!D23  / 'High Duration Spells'!E23</f>
+        <v>0.42585810407972063</v>
+      </c>
+      <c r="D24">
+        <f>'High Instance Spells'!D23  / 'High Instance Spells'!E23</f>
+        <v>0.43237634036665518</v>
+      </c>
+      <c r="E24">
+        <f>'AOE Spells'!D23  / 'AOE Spells'!E23</f>
+        <v>0.47609979051609225</v>
+      </c>
+      <c r="F24">
+        <f>'High Knockback Spells'!D23  / 'High Knockback Spells'!E23</f>
+        <v>1.3380909901873328</v>
+      </c>
+      <c r="G24">
+        <f>'High Recoil Spells'!D23  / 'High Recoil Spells'!E23</f>
+        <v>0.77748406157673777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25">
+        <f>'High Damage Spells'!D24  / 'High Damage Spells'!E24</f>
+        <v>6.9808027923211169</v>
+      </c>
+      <c r="C25">
+        <f>'High Duration Spells'!D24  / 'High Duration Spells'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>'High Instance Spells'!D24  / 'High Instance Spells'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>'AOE Spells'!D24  / 'AOE Spells'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>'High Knockback Spells'!D24  / 'High Knockback Spells'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>'High Recoil Spells'!D24  / 'High Recoil Spells'!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26">
+        <f>'High Damage Spells'!D25  / 'High Damage Spells'!E25</f>
+        <v>0.26576660376857042</v>
+      </c>
+      <c r="C26">
+        <f>'High Duration Spells'!D25  / 'High Duration Spells'!E25</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>'High Instance Spells'!D25  / 'High Instance Spells'!E25</f>
+        <v>0.51797368693670365</v>
+      </c>
+      <c r="E26">
+        <f>'AOE Spells'!D25  / 'AOE Spells'!E25</f>
+        <v>0.57035304853704449</v>
+      </c>
+      <c r="F26">
+        <f>'High Knockback Spells'!D25  / 'High Knockback Spells'!E25</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>'High Recoil Spells'!D25  / 'High Recoil Spells'!E25</f>
+        <v>0.46570111302566014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27">
+        <f>'High Damage Spells'!D26  / 'High Damage Spells'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>'High Duration Spells'!D26  / 'High Duration Spells'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>'High Instance Spells'!D26  / 'High Instance Spells'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>'AOE Spells'!D26  / 'AOE Spells'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>'High Knockback Spells'!D26  / 'High Knockback Spells'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>'High Recoil Spells'!D26  / 'High Recoil Spells'!E26</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Alchemy/data/LetterFreq.xlsx
+++ b/Alchemy/data/LetterFreq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11610" tabRatio="781" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11610" tabRatio="781" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="161">
   <si>
     <t>a</t>
   </si>
@@ -223,18 +223,6 @@
     <t>summon</t>
   </si>
   <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>Boerger</t>
-  </si>
-  <si>
     <t>finger of death</t>
   </si>
   <si>
@@ -265,12 +253,6 @@
     <t>disjunction</t>
   </si>
   <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Wall</t>
-  </si>
-  <si>
     <t>meteorite</t>
   </si>
   <si>
@@ -295,12 +277,6 @@
     <t>beast from below</t>
   </si>
   <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Rushe</t>
-  </si>
-  <si>
     <t>flesh melt</t>
   </si>
   <si>
@@ -322,12 +298,6 @@
     <t>blood boil</t>
   </si>
   <si>
-    <t>Gab</t>
-  </si>
-  <si>
-    <t>Chenier</t>
-  </si>
-  <si>
     <t>flaming glean</t>
   </si>
   <si>
@@ -343,12 +313,6 @@
     <t>summon knights</t>
   </si>
   <si>
-    <t>Jullian</t>
-  </si>
-  <si>
-    <t>Hyatt</t>
-  </si>
-  <si>
     <t>detect secret door</t>
   </si>
   <si>
@@ -358,19 +322,7 @@
     <t>elastoid</t>
   </si>
   <si>
-    <t>Nic</t>
-  </si>
-  <si>
-    <t>Gulezian</t>
-  </si>
-  <si>
     <t>prestidigitation</t>
-  </si>
-  <si>
-    <t>Griffin</t>
-  </si>
-  <si>
-    <t>Downs</t>
   </si>
   <si>
     <t>quake</t>
@@ -473,6 +425,96 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Sean Boerger</t>
+  </si>
+  <si>
+    <t>Arthur Wall</t>
+  </si>
+  <si>
+    <t>Eric Rushe</t>
+  </si>
+  <si>
+    <t>Gab Chenier</t>
+  </si>
+  <si>
+    <t>Jullian Hyatt</t>
+  </si>
+  <si>
+    <t>Nic Gulezian</t>
+  </si>
+  <si>
+    <t>Griffin Downs</t>
+  </si>
+  <si>
+    <t>Name (humans)</t>
+  </si>
+  <si>
+    <t>Name (aliases)</t>
+  </si>
+  <si>
+    <t>MumboBros</t>
+  </si>
+  <si>
+    <t>Rainy Days</t>
+  </si>
+  <si>
+    <t>Edward Garfield</t>
+  </si>
+  <si>
+    <t>hxfthxft</t>
+  </si>
+  <si>
+    <t>Spake Kitty</t>
+  </si>
+  <si>
+    <t>greebster</t>
+  </si>
+  <si>
+    <t>… and a number of others who wished to remain unnamed. Thank you for your contributions!</t>
+  </si>
+  <si>
+    <t>Krasniye/Flightfreak</t>
+  </si>
+  <si>
+    <t>jessameth</t>
+  </si>
+  <si>
+    <t>R9000</t>
+  </si>
+  <si>
+    <t>mayhem</t>
+  </si>
+  <si>
+    <t>rejuvenate</t>
+  </si>
+  <si>
+    <t>vortex</t>
+  </si>
+  <si>
+    <t>stop time</t>
+  </si>
+  <si>
+    <t>slow time</t>
+  </si>
+  <si>
+    <t>siren</t>
+  </si>
+  <si>
+    <t>telekinesis</t>
+  </si>
+  <si>
+    <t>lumos maxima</t>
+  </si>
+  <si>
+    <t>firestorm</t>
+  </si>
+  <si>
+    <t>bend time</t>
+  </si>
+  <si>
+    <t>wrath of the gods</t>
   </si>
 </sst>
 </file>
@@ -1041,11 +1083,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-911618896"/>
-        <c:axId val="-911623792"/>
+        <c:axId val="1057264224"/>
+        <c:axId val="1057276192"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-911623792"/>
+        <c:axId val="1057276192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,12 +1138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911618896"/>
+        <c:crossAx val="1057264224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-911618896"/>
+        <c:axId val="1057264224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911623792"/>
+        <c:crossAx val="1057276192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1427,49 +1469,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.0679591836734694</c:v>
+                  <c:v>3.4971028037383176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5508163265306123</c:v>
+                  <c:v>0.37915887850467267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28122448979591841</c:v>
+                  <c:v>2.3738317757009408E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5571428571428569</c:v>
+                  <c:v>5.2233644859813086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83122448979591823</c:v>
+                  <c:v>1.5083177570093453</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0820408163265305</c:v>
+                  <c:v>2.6528971962616823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0287755102040816</c:v>
+                  <c:v>3.2862616822429906</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2340816326530613</c:v>
+                  <c:v>3.3103738317757001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25040816326530613</c:v>
+                  <c:v>0.16457943925233631</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0720408163265303</c:v>
+                  <c:v>0.64289719626168207</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7736734693877558</c:v>
+                  <c:v>6.9357943925233645</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39285714285714235</c:v>
+                  <c:v>0.20794392523364547</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3875510204081634</c:v>
+                  <c:v>0.96794392523364525</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.93</c:v>
@@ -1478,28 +1520,28 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13244897959183621</c:v>
+                  <c:v>1.4866355140186904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9557142857142846</c:v>
+                  <c:v>7.688691588785046</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9375510204081641</c:v>
+                  <c:v>2.517943925233646</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3216326530612248</c:v>
+                  <c:v>0.97831775700934553</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3395918367346937</c:v>
+                  <c:v>1.4254205607476635</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.94959183673469383</c:v>
+                  <c:v>1.0354205607476636</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.0000000000000007E-2</c:v>
@@ -1518,11 +1560,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-907826336"/>
-        <c:axId val="-907818176"/>
+        <c:axId val="1062714640"/>
+        <c:axId val="1062718448"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-907818176"/>
+        <c:axId val="1062718448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,12 +1615,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907826336"/>
+        <c:crossAx val="1062714640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-907826336"/>
+        <c:axId val="1062714640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907818176"/>
+        <c:crossAx val="1062718448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1877,73 +1919,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>7.3684210526315779</c:v>
+                  <c:v>7.3394495412844041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>0.91743119266055051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1578947368421053</c:v>
+                  <c:v>2.7522935779816518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2631578947368416</c:v>
+                  <c:v>5.5045871559633035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.526315789473683</c:v>
+                  <c:v>10.091743119266056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1052631578947367</c:v>
+                  <c:v>2.7522935779816518</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1578947368421053</c:v>
+                  <c:v>3.669724770642202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1578947368421053</c:v>
+                  <c:v>4.5871559633027523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3684210526315779</c:v>
+                  <c:v>6.4220183486238538</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>0.91743119266055051</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2105263157894735</c:v>
+                  <c:v>3.669724770642202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1052631578947367</c:v>
+                  <c:v>1.834862385321101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3684210526315779</c:v>
+                  <c:v>6.4220183486238538</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3157894736842106</c:v>
+                  <c:v>7.3394495412844041</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>0.91743119266055051</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.526315789473683</c:v>
+                  <c:v>10.091743119266056</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3684210526315779</c:v>
+                  <c:v>7.3394495412844041</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3157894736842106</c:v>
+                  <c:v>7.3394495412844041</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.3157894736842106</c:v>
+                  <c:v>5.5045871559633035</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0526315789473684</c:v>
+                  <c:v>0.91743119266055051</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1578947368421053</c:v>
+                  <c:v>3.669724770642202</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -2162,11 +2204,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-907829056"/>
-        <c:axId val="-907829600"/>
+        <c:axId val="1062704848"/>
+        <c:axId val="1062709200"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-907829600"/>
+        <c:axId val="1062709200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,12 +2259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907829056"/>
+        <c:crossAx val="1062704848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-907829056"/>
+        <c:axId val="1062704848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,7 +2307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907829600"/>
+        <c:crossAx val="1062709200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2548,73 +2590,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.80157894736842206</c:v>
+                  <c:v>0.83055045871559585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43736842105263163</c:v>
+                  <c:v>0.57256880733944948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37789473684210551</c:v>
+                  <c:v>2.7706422018348054E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0131578947368416</c:v>
+                  <c:v>1.2545871559633035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1736842105263161</c:v>
+                  <c:v>2.6082568807339435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12473684210526326</c:v>
+                  <c:v>0.52229357798165177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1378947368421053</c:v>
+                  <c:v>1.649724770642202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9321052631578945</c:v>
+                  <c:v>1.5028440366972475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39842105263157812</c:v>
+                  <c:v>0.54798165137614596</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28263157894736834</c:v>
+                  <c:v>0.14743119266055049</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1805263157894732</c:v>
+                  <c:v>0.36027522935779821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30473684210526342</c:v>
+                  <c:v>0.57513761467889912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61842105263157787</c:v>
+                  <c:v>0.32798165137614621</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1942105263157892</c:v>
+                  <c:v>0.17055045871559571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87736842105263158</c:v>
+                  <c:v>1.0125688073394494</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.536315789473683</c:v>
+                  <c:v>4.1017431192660556</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0384210526315778</c:v>
+                  <c:v>1.009449541284404</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7442105263157899</c:v>
+                  <c:v>1.7205504587155964</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5557894736842108</c:v>
+                  <c:v>2.7445871559633037</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.263157894736838E-2</c:v>
+                  <c:v>6.2568807339449473E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.79789473684210543</c:v>
+                  <c:v>1.3097247706422022</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.15</c:v>
@@ -2639,11 +2681,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-907827968"/>
-        <c:axId val="-907821984"/>
+        <c:axId val="1062713008"/>
+        <c:axId val="1062705936"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-907821984"/>
+        <c:axId val="1062705936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,12 +2736,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907827968"/>
+        <c:crossAx val="1062713008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-907827968"/>
+        <c:axId val="1062713008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2742,7 +2784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907821984"/>
+        <c:crossAx val="1062705936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2998,79 +3040,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>6.4220183486238538</c:v>
+                  <c:v>5.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7522935779816518</c:v>
+                  <c:v>2.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7522935779816518</c:v>
+                  <c:v>2.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.834862385321101</c:v>
+                  <c:v>2.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.091743119266056</c:v>
+                  <c:v>10.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.834862385321101</c:v>
+                  <c:v>2.8571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91743119266055051</c:v>
+                  <c:v>1.4285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5871559633027523</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3394495412844041</c:v>
+                  <c:v>7.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91743119266055051</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.834862385321101</c:v>
+                  <c:v>1.4285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5045871559633035</c:v>
+                  <c:v>4.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.669724770642202</c:v>
+                  <c:v>4.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2568807339449553</c:v>
+                  <c:v>7.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3394495412844041</c:v>
+                  <c:v>7.8571428571428568</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91743119266055051</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1743119266055047</c:v>
+                  <c:v>9.2857142857142865</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3394495412844041</c:v>
+                  <c:v>7.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.091743119266056</c:v>
+                  <c:v>10.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7522935779816518</c:v>
+                  <c:v>2.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91743119266055051</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.834862385321101</c:v>
+                  <c:v>2.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91743119266055051</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -3283,11 +3325,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-907820896"/>
-        <c:axId val="-907822528"/>
+        <c:axId val="1062711376"/>
+        <c:axId val="1062707024"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-907822528"/>
+        <c:axId val="1062707024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,12 +3380,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907820896"/>
+        <c:crossAx val="1062711376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-907820896"/>
+        <c:axId val="1062711376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,7 +3428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907822528"/>
+        <c:crossAx val="1062707024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3669,79 +3711,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.7479816513761461</c:v>
+                  <c:v>2.4557142857142855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2622935779816518</c:v>
+                  <c:v>1.3671428571428572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7706422018348054E-2</c:v>
+                  <c:v>0.63714285714285701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.415137614678899</c:v>
+                  <c:v>1.3928571428571428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6082568807339435</c:v>
+                  <c:v>1.9857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39513761467889896</c:v>
+                  <c:v>0.62714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1025688073394495</c:v>
+                  <c:v>0.59142857142857141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5028440366972475</c:v>
+                  <c:v>1.0899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36944954128440433</c:v>
+                  <c:v>0.1728571428571426</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76743119266055049</c:v>
+                  <c:v>0.56428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.064862385321101</c:v>
+                  <c:v>0.65857142857142859</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4745871559633033</c:v>
+                  <c:v>0.25571428571428534</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2597247706422019</c:v>
+                  <c:v>1.8757142857142854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5068807339449553</c:v>
+                  <c:v>0.39285714285714235</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.17055045871559571</c:v>
+                  <c:v>0.34714285714285698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0125688073394494</c:v>
+                  <c:v>1.2157142857142857</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1843119266055044</c:v>
+                  <c:v>3.2957142857142863</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.009449541284404</c:v>
+                  <c:v>0.81285714285714228</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0317431192660553</c:v>
+                  <c:v>1.654285714285713</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7064220183480359E-3</c:v>
+                  <c:v>0.61714285714285699</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.2568807339449473E-2</c:v>
+                  <c:v>0.26571428571428568</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52513761467889886</c:v>
+                  <c:v>0.21714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0525688073394495</c:v>
+                  <c:v>1.2557142857142858</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.0000000000000007E-2</c:v>
@@ -3760,11 +3802,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-907052864"/>
-        <c:axId val="-907055584"/>
+        <c:axId val="1062714096"/>
+        <c:axId val="1062710288"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-907055584"/>
+        <c:axId val="1062710288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,12 +3857,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907052864"/>
+        <c:crossAx val="1062714096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-907052864"/>
+        <c:axId val="1062714096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3863,7 +3905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907055584"/>
+        <c:crossAx val="1062710288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4205,11 +4247,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-911618352"/>
-        <c:axId val="-911631952"/>
+        <c:axId val="1062155344"/>
+        <c:axId val="1062157520"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-911631952"/>
+        <c:axId val="1062157520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4260,12 +4302,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911618352"/>
+        <c:crossAx val="1062155344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-911618352"/>
+        <c:axId val="1062155344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,7 +4350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911631952"/>
+        <c:crossAx val="1062157520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4564,79 +4606,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>6.2827225130890048</c:v>
+                  <c:v>6.1946902654867255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1413612565445024</c:v>
+                  <c:v>2.6548672566371683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0942408376963351</c:v>
+                  <c:v>1.7699115044247788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6178010471204187</c:v>
+                  <c:v>2.6548672566371683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.471204188481675</c:v>
+                  <c:v>10.619469026548673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.664921465968586</c:v>
+                  <c:v>3.9823008849557522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7120418848167542</c:v>
+                  <c:v>4.4247787610619467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1413612565445024</c:v>
+                  <c:v>3.9823008849557522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.612565445026178</c:v>
+                  <c:v>11.946902654867257</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5706806282722512</c:v>
+                  <c:v>1.3274336283185841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4240837696335085</c:v>
+                  <c:v>7.9646017699115044</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1884816753926701</c:v>
+                  <c:v>4.8672566371681416</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2356020942408374</c:v>
+                  <c:v>4.4247787610619467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7120418848167542</c:v>
+                  <c:v>5.7522123893805306</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52356020942408377</c:v>
+                  <c:v>0.44247787610619471</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8534031413612562</c:v>
+                  <c:v>8.4070796460176993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1884816753926701</c:v>
+                  <c:v>4.4247787610619467</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8062827225130889</c:v>
+                  <c:v>7.5221238938053103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0471204188481675</c:v>
+                  <c:v>0.88495575221238942</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.52356020942408377</c:v>
+                  <c:v>0.88495575221238942</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6178010471204187</c:v>
+                  <c:v>2.6548672566371683</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0471204188481675</c:v>
+                  <c:v>1.3274336283185841</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.52356020942408377</c:v>
+                  <c:v>0.88495575221238942</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -4849,11 +4891,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-911622160"/>
-        <c:axId val="-911631408"/>
+        <c:axId val="1062149904"/>
+        <c:axId val="1062158064"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-911631408"/>
+        <c:axId val="1062158064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4904,12 +4946,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911622160"/>
+        <c:crossAx val="1062149904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-911622160"/>
+        <c:axId val="1062149904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,7 +4994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911631408"/>
+        <c:crossAx val="1062158064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5235,79 +5277,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.8872774869109952</c:v>
+                  <c:v>1.9753097345132744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6513612565445024</c:v>
+                  <c:v>1.1648672566371683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68575916230366474</c:v>
+                  <c:v>1.010088495575221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6321989528795813</c:v>
+                  <c:v>1.5951327433628317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2287958115183244</c:v>
+                  <c:v>2.0805309734513262</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4349214659685861</c:v>
+                  <c:v>1.7523008849557522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6920418848167542</c:v>
+                  <c:v>2.4047787610619467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9486387434554975</c:v>
+                  <c:v>2.1076991150442477</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.642565445026178</c:v>
+                  <c:v>4.9769026548672572</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.80068062827225117</c:v>
+                  <c:v>0.55743362831858412</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3940837696335082</c:v>
+                  <c:v>3.9346017699115041</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.77848167539267</c:v>
+                  <c:v>2.4572566371681415</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5143979057591626</c:v>
+                  <c:v>2.3252212389380533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7979581151832456</c:v>
+                  <c:v>1.7577876106194692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4064397905759161</c:v>
+                  <c:v>1.4875221238938052</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.863403141361256</c:v>
+                  <c:v>2.4170796460176991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1415183246073299</c:v>
+                  <c:v>1.9052212389380534</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2537172774869116</c:v>
+                  <c:v>1.5378761061946902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7128795811518323</c:v>
+                  <c:v>1.8750442477876104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.45643979057591622</c:v>
+                  <c:v>9.5044247787610558E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25780104712041885</c:v>
+                  <c:v>0.2948672566371684</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.89712041884816751</c:v>
+                  <c:v>1.1774336283185842</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4464397905759161</c:v>
+                  <c:v>1.0850442477876105</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.0000000000000007E-2</c:v>
@@ -5326,11 +5368,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-911625968"/>
-        <c:axId val="-911627600"/>
+        <c:axId val="1062143376"/>
+        <c:axId val="1062152624"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-911627600"/>
+        <c:axId val="1062152624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5381,12 +5423,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911625968"/>
+        <c:crossAx val="1062143376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-911625968"/>
+        <c:axId val="1062143376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5429,7 +5471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911627600"/>
+        <c:crossAx val="1062152624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5685,79 +5727,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>9.0452261306532673</c:v>
+                  <c:v>8.0586080586080584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5075376884422109</c:v>
+                  <c:v>1.098901098901099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0150753768844218</c:v>
+                  <c:v>2.197802197802198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5226130653266337</c:v>
+                  <c:v>3.296703296703297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0452261306532673</c:v>
+                  <c:v>10.989010989010989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0201005025125625</c:v>
+                  <c:v>3.296703296703297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5175879396984926</c:v>
+                  <c:v>2.5641025641025639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.512562814070352</c:v>
+                  <c:v>2.197802197802198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5427135678391952</c:v>
+                  <c:v>8.791208791208792</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.36630036630036628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.50251256281407031</c:v>
+                  <c:v>0.73260073260073255</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.050251256281408</c:v>
+                  <c:v>8.4249084249084252</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5175879396984926</c:v>
+                  <c:v>5.4945054945054945</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5326633165829149</c:v>
+                  <c:v>5.8608058608058604</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.050251256281408</c:v>
+                  <c:v>9.1575091575091569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.512562814070352</c:v>
+                  <c:v>2.197802197802198</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.025125628140704</c:v>
+                  <c:v>5.4945054945054945</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0301507537688437</c:v>
+                  <c:v>6.9597069597069599</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5376884422110546</c:v>
+                  <c:v>8.0586080586080584</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5075376884422109</c:v>
+                  <c:v>1.8315018315018317</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.73260073260073255</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0050251256281406</c:v>
+                  <c:v>1.098901098901099</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.73260073260073255</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.36630036630036628</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -5970,11 +6012,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-911621072"/>
-        <c:axId val="-911624880"/>
+        <c:axId val="1062144464"/>
+        <c:axId val="1062143920"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-911624880"/>
+        <c:axId val="1062143920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6025,12 +6067,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911621072"/>
+        <c:crossAx val="1062144464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-911621072"/>
+        <c:axId val="1062144464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6073,7 +6115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-911624880"/>
+        <c:crossAx val="1062143920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6356,79 +6398,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.87522613065326738</c:v>
+                  <c:v>0.11139194139194153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.753768844221093E-2</c:v>
+                  <c:v>0.391098901098901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23507537688442204</c:v>
+                  <c:v>0.58219780219780182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27261306532663365</c:v>
+                  <c:v>0.95329670329670302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.654773869346732</c:v>
+                  <c:v>1.7109890109890102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7901005025125625</c:v>
+                  <c:v>1.066703296703297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4975879396984926</c:v>
+                  <c:v>0.54410256410256386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5774371859296479</c:v>
+                  <c:v>3.8921978021978019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5727135678391955</c:v>
+                  <c:v>1.8212087912087922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15</c:v>
+                  <c:v>0.21630036630036628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26748743718592971</c:v>
+                  <c:v>3.7399267399267466E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0202512562814077</c:v>
+                  <c:v>4.3949084249084249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1075879396984925</c:v>
+                  <c:v>3.0845054945054944</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21733668341708512</c:v>
+                  <c:v>0.88919413919413959</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5402512562814081</c:v>
+                  <c:v>1.6475091575091572</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.58256281407035204</c:v>
+                  <c:v>0.26780219780219805</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.96487437185929625</c:v>
+                  <c:v>0.49549450549450569</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.29984924623115639</c:v>
+                  <c:v>0.62970695970695978</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5223115577889459</c:v>
+                  <c:v>1.0013919413919421</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2524623115577889</c:v>
+                  <c:v>0.92849816849816813</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98</c:v>
+                  <c:v>0.24739926739926743</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3549748743718593</c:v>
+                  <c:v>1.2610989010989009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15</c:v>
+                  <c:v>0.58260073260073253</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.97</c:v>
+                  <c:v>1.6036996336996336</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.0000000000000007E-2</c:v>
@@ -6447,11 +6489,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-907827424"/>
-        <c:axId val="-1140204080"/>
+        <c:axId val="1062147184"/>
+        <c:axId val="1062153168"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-1140204080"/>
+        <c:axId val="1062153168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6502,12 +6544,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907827424"/>
+        <c:crossAx val="1062147184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-907827424"/>
+        <c:axId val="1062147184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,7 +6592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1140204080"/>
+        <c:crossAx val="1062153168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6806,79 +6848,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>11.235955056179774</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1235955056179776</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3707865168539324</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2471910112359552</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7415730337078648</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6853932584269662</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3707865168539324</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0561797752808983</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4269662921348321</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5617977528089888</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3033707865168536</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9325842696629212</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7415730337078648</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0561797752808983</c:v>
+                  <c:v>5.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9325842696629212</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5617977528089888</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7415730337078648</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5505617977528079</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.179775280898876</c:v>
+                  <c:v>7.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8089887640449436</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1235955056179776</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1235955056179776</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1235955056179776</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -7091,11 +7133,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-907816544"/>
-        <c:axId val="-907819264"/>
+        <c:axId val="1062156976"/>
+        <c:axId val="1062147728"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-907819264"/>
+        <c:axId val="1062147728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7146,12 +7188,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907816544"/>
+        <c:crossAx val="1062156976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-907816544"/>
+        <c:axId val="1062156976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7194,7 +7236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907819264"/>
+        <c:crossAx val="1062147728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7477,79 +7519,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.0659550561797744</c:v>
+                  <c:v>1.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36640449438202238</c:v>
+                  <c:v>0.29000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59078651685393258</c:v>
+                  <c:v>0.37999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0028089887640448</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9584269662921345</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54460674157303379</c:v>
+                  <c:v>0.62999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3507865168539324</c:v>
+                  <c:v>0.37999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0338202247191015</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4569662921348323</c:v>
+                  <c:v>2.2299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20820224719101121</c:v>
+                  <c:v>3.0000000000000027E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2733707865168533</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.522584269662921</c:v>
+                  <c:v>3.99</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4269662921352406E-3</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4538202247191014</c:v>
+                  <c:v>1.9099999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.002584269662921</c:v>
+                  <c:v>1.2700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46179775280898883</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.75157303370786455</c:v>
+                  <c:v>0.41000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2205617977528078</c:v>
+                  <c:v>3.2699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8802247191011245</c:v>
+                  <c:v>1.8600000000000012</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8988764044943789E-2</c:v>
+                  <c:v>0.35999999999999988</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14359550561797763</c:v>
+                  <c:v>0.21999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2364044943820223</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.84640449438202237</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.0000000000000007E-2</c:v>
@@ -7568,11 +7610,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-907815456"/>
-        <c:axId val="-907824704"/>
+        <c:axId val="1062155888"/>
+        <c:axId val="1062149360"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-907824704"/>
+        <c:axId val="1062149360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7623,12 +7665,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907815456"/>
+        <c:crossAx val="1062155888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-907815456"/>
+        <c:axId val="1062155888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7671,7 +7713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907824704"/>
+        <c:crossAx val="1062149360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7927,49 +7969,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>5.1020408163265305</c:v>
+                  <c:v>4.6728971962616823</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0408163265306123</c:v>
+                  <c:v>1.8691588785046727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0612244897959182</c:v>
+                  <c:v>2.8037383177570092</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1428571428571423</c:v>
+                  <c:v>7.4766355140186906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0612244897959182</c:v>
+                  <c:v>3.7383177570093453</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1020408163265305</c:v>
+                  <c:v>4.6728971962616823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0612244897959182</c:v>
+                  <c:v>2.8037383177570092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.204081632653061</c:v>
+                  <c:v>10.2803738317757</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0204081632653061</c:v>
+                  <c:v>0.93457943925233633</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1020408163265305</c:v>
+                  <c:v>4.6728971962616823</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.183673469387756</c:v>
+                  <c:v>9.3457943925233646</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1428571428571423</c:v>
+                  <c:v>6.5420560747663545</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1224489795918364</c:v>
+                  <c:v>6.5420560747663545</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -7978,28 +8020,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1224489795918364</c:v>
+                  <c:v>7.4766355140186906</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.285714285714285</c:v>
+                  <c:v>14.018691588785046</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.1224489795918364</c:v>
+                  <c:v>6.5420560747663545</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0816326530612246</c:v>
+                  <c:v>3.7383177570093453</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0204081632653061</c:v>
+                  <c:v>0.93457943925233633</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0204081632653061</c:v>
+                  <c:v>0.93457943925233633</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -8212,11 +8254,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="15"/>
-        <c:axId val="-907825792"/>
-        <c:axId val="-907817632"/>
+        <c:axId val="1062704304"/>
+        <c:axId val="1062717360"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="-907817632"/>
+        <c:axId val="1062717360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8267,12 +8309,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907825792"/>
+        <c:crossAx val="1062704304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-907825792"/>
+        <c:axId val="1062704304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8315,7 +8357,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-907817632"/>
+        <c:crossAx val="1062717360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17135,7 +17177,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17157,11 +17199,11 @@
       </c>
       <c r="C1" s="1">
         <f t="array" ref="C1">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B1,"")))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1">
         <f>(C1/B27)*100</f>
-        <v>6.2827225130890048</v>
+        <v>6.1946902654867255</v>
       </c>
       <c r="E1" s="1">
         <v>8.17</v>
@@ -17171,7 +17213,7 @@
       </c>
       <c r="G1">
         <f t="shared" ref="G1:G26" si="0">ABS(E1-D1)</f>
-        <v>1.8872774869109952</v>
+        <v>1.9753097345132744</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -17187,7 +17229,7 @@
       </c>
       <c r="D2" s="1">
         <f>(C2/B27)*100</f>
-        <v>3.1413612565445024</v>
+        <v>2.6548672566371683</v>
       </c>
       <c r="E2" s="1">
         <v>1.49</v>
@@ -17197,7 +17239,7 @@
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>1.6513612565445024</v>
+        <v>1.1648672566371683</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17213,7 +17255,7 @@
       </c>
       <c r="D3" s="1">
         <f>(C3/B27)*100</f>
-        <v>2.0942408376963351</v>
+        <v>1.7699115044247788</v>
       </c>
       <c r="E3" s="1">
         <v>2.78</v>
@@ -17223,7 +17265,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.68575916230366474</v>
+        <v>1.010088495575221</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17235,11 +17277,11 @@
       </c>
       <c r="C4" s="1">
         <f t="array" ref="C4">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B4,"")))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <f>(C4/B27)*100</f>
-        <v>2.6178010471204187</v>
+        <v>2.6548672566371683</v>
       </c>
       <c r="E4" s="1">
         <v>4.25</v>
@@ -17249,7 +17291,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1.6321989528795813</v>
+        <v>1.5951327433628317</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17261,11 +17303,11 @@
       </c>
       <c r="C5" s="1">
         <f t="array" ref="C5">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B5,"")))</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <f>(C5/B27)*100</f>
-        <v>10.471204188481675</v>
+        <v>10.619469026548673</v>
       </c>
       <c r="E5" s="1">
         <v>12.7</v>
@@ -17275,7 +17317,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2.2287958115183244</v>
+        <v>2.0805309734513262</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17287,11 +17329,11 @@
       </c>
       <c r="C6" s="1">
         <f t="array" ref="C6">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B6,"")))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <f>(C6/B27)*100</f>
-        <v>3.664921465968586</v>
+        <v>3.9823008849557522</v>
       </c>
       <c r="E6" s="1">
         <v>2.23</v>
@@ -17301,7 +17343,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1.4349214659685861</v>
+        <v>1.7523008849557522</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17313,11 +17355,11 @@
       </c>
       <c r="C7" s="1">
         <f t="array" ref="C7">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B7,"")))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <f>(C7/B27)*100</f>
-        <v>4.7120418848167542</v>
+        <v>4.4247787610619467</v>
       </c>
       <c r="E7" s="1">
         <v>2.02</v>
@@ -17327,7 +17369,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2.6920418848167542</v>
+        <v>2.4047787610619467</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17339,11 +17381,11 @@
       </c>
       <c r="C8" s="1">
         <f t="array" ref="C8">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B8,"")))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <f>(C8/B27)*100</f>
-        <v>3.1413612565445024</v>
+        <v>3.9823008849557522</v>
       </c>
       <c r="E8" s="1">
         <v>6.09</v>
@@ -17353,7 +17395,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2.9486387434554975</v>
+        <v>2.1076991150442477</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17365,11 +17407,11 @@
       </c>
       <c r="C9" s="1">
         <f t="array" ref="C9">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B9,"")))</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <f>(C9/B27)*100</f>
-        <v>13.612565445026178</v>
+        <v>11.946902654867257</v>
       </c>
       <c r="E9" s="1">
         <v>6.97</v>
@@ -17379,7 +17421,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>6.642565445026178</v>
+        <v>4.9769026548672572</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17421,7 +17463,7 @@
       </c>
       <c r="D11" s="1">
         <f>(C11/B27)*100</f>
-        <v>1.5706806282722512</v>
+        <v>1.3274336283185841</v>
       </c>
       <c r="E11" s="1">
         <v>0.77</v>
@@ -17431,7 +17473,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.80068062827225117</v>
+        <v>0.55743362831858412</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -17447,7 +17489,7 @@
       </c>
       <c r="D12" s="1">
         <f>(C12/B27)*100</f>
-        <v>9.4240837696335085</v>
+        <v>7.9646017699115044</v>
       </c>
       <c r="E12" s="1">
         <v>4.03</v>
@@ -17457,7 +17499,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>5.3940837696335082</v>
+        <v>3.9346017699115041</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -17469,11 +17511,11 @@
       </c>
       <c r="C13" s="1">
         <f t="array" ref="C13">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B13,"")))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
         <f>(C13/B27)*100</f>
-        <v>4.1884816753926701</v>
+        <v>4.8672566371681416</v>
       </c>
       <c r="E13" s="1">
         <v>2.41</v>
@@ -17483,12 +17525,12 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1.77848167539267</v>
+        <v>2.4572566371681415</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -17499,7 +17541,7 @@
       </c>
       <c r="D14" s="1">
         <f>(C14/B27)*100</f>
-        <v>5.2356020942408374</v>
+        <v>4.4247787610619467</v>
       </c>
       <c r="E14" s="1">
         <v>6.75</v>
@@ -17509,23 +17551,23 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1.5143979057591626</v>
+        <v>2.3252212389380533</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">
         <f t="array" ref="C15">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B15,"")))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <f>(C15/B27)*100</f>
-        <v>4.7120418848167542</v>
+        <v>5.7522123893805306</v>
       </c>
       <c r="E15" s="1">
         <v>7.51</v>
@@ -17535,12 +17577,12 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>2.7979581151832456</v>
+        <v>1.7577876106194692</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -17551,7 +17593,7 @@
       </c>
       <c r="D16" s="1">
         <f>(C16/B27)*100</f>
-        <v>0.52356020942408377</v>
+        <v>0.44247787610619471</v>
       </c>
       <c r="E16" s="1">
         <v>1.93</v>
@@ -17561,12 +17603,12 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1.4064397905759161</v>
+        <v>1.4875221238938052</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -17592,18 +17634,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f t="array" ref="C18">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B18,"")))</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
         <f>(C18/B27)*100</f>
-        <v>7.8534031413612562</v>
+        <v>8.4070796460176993</v>
       </c>
       <c r="E18" s="1">
         <v>5.99</v>
@@ -17613,20 +17655,23 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1.863403141361256</v>
+        <v>2.4170796460176991</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
         <f t="array" ref="C19">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B19,"")))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <f>(C19/B27)*100</f>
-        <v>4.1884816753926701</v>
+        <v>4.4247787610619467</v>
       </c>
       <c r="E19" s="1">
         <v>6.33</v>
@@ -17636,20 +17681,23 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>2.1415183246073299</v>
+        <v>1.9052212389380534</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
         <f t="array" ref="C20">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B20,"")))</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <f>(C20/B27)*100</f>
-        <v>6.8062827225130889</v>
+        <v>7.5221238938053103</v>
       </c>
       <c r="E20" s="1">
         <v>9.06</v>
@@ -17659,10 +17707,13 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>2.2537172774869116</v>
+        <v>1.5378761061946902</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
@@ -17672,7 +17723,7 @@
       </c>
       <c r="D21" s="1">
         <f>(C21/B27)*100</f>
-        <v>1.0471204188481675</v>
+        <v>0.88495575221238942</v>
       </c>
       <c r="E21" s="1">
         <v>2.76</v>
@@ -17682,20 +17733,23 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>1.7128795811518323</v>
+        <v>1.8750442477876104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1">
         <f t="array" ref="C22">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B22,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <f>(C22/B27)*100</f>
-        <v>0.52356020942408377</v>
+        <v>0.88495575221238942</v>
       </c>
       <c r="E22" s="1">
         <v>0.98</v>
@@ -17705,7 +17759,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.45643979057591622</v>
+        <v>9.5044247787610558E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -17714,11 +17768,11 @@
       </c>
       <c r="C23" s="1">
         <f t="array" ref="C23">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B23,"")))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1">
         <f>(C23/B27)*100</f>
-        <v>2.6178010471204187</v>
+        <v>2.6548672566371683</v>
       </c>
       <c r="E23" s="1">
         <v>2.36</v>
@@ -17728,7 +17782,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.25780104712041885</v>
+        <v>0.2948672566371684</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -17737,11 +17791,11 @@
       </c>
       <c r="C24" s="1">
         <f t="array" ref="C24">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B24,"")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
         <f>(C24/B27)*100</f>
-        <v>1.0471204188481675</v>
+        <v>1.3274336283185841</v>
       </c>
       <c r="E24" s="1">
         <v>0.15</v>
@@ -17751,7 +17805,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0.89712041884816751</v>
+        <v>1.1774336283185842</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -17760,11 +17814,11 @@
       </c>
       <c r="C25" s="1">
         <f t="array" ref="C25">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B25,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <f>(C25/B27)*100</f>
-        <v>0.52356020942408377</v>
+        <v>0.88495575221238942</v>
       </c>
       <c r="E25" s="1">
         <v>1.97</v>
@@ -17774,7 +17828,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>1.4464397905759161</v>
+        <v>1.0850442477876105</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -17803,7 +17857,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>SUM(C1:C26)</f>
-        <v>191</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -17826,8 +17880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17847,11 +17901,11 @@
       </c>
       <c r="C1" s="1">
         <f t="array" ref="C1">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B1,"")))</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1">
         <f>(C1/B27)*100</f>
-        <v>9.0452261306532673</v>
+        <v>8.0586080586080584</v>
       </c>
       <c r="E1" s="1">
         <v>8.17</v>
@@ -17861,7 +17915,7 @@
       </c>
       <c r="G1">
         <f t="shared" ref="G1:G26" si="0">ABS(E1-D1)</f>
-        <v>0.87522613065326738</v>
+        <v>0.11139194139194153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -17877,7 +17931,7 @@
       </c>
       <c r="D2" s="1">
         <f>(C2/B27)*100</f>
-        <v>1.5075376884422109</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="E2" s="1">
         <v>1.49</v>
@@ -17887,7 +17941,7 @@
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>1.753768844221093E-2</v>
+        <v>0.391098901098901</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17903,7 +17957,7 @@
       </c>
       <c r="D3" s="1">
         <f>(C3/B27)*100</f>
-        <v>3.0150753768844218</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="E3" s="1">
         <v>2.78</v>
@@ -17913,7 +17967,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.23507537688442204</v>
+        <v>0.58219780219780182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17929,7 +17983,7 @@
       </c>
       <c r="D4" s="1">
         <f>(C4/B27)*100</f>
-        <v>4.5226130653266337</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="E4" s="1">
         <v>4.25</v>
@@ -17939,7 +17993,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.27261306532663365</v>
+        <v>0.95329670329670302</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17951,11 +18005,11 @@
       </c>
       <c r="C5" s="1">
         <f t="array" ref="C5">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B5,"")))</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <f>(C5/B27)*100</f>
-        <v>9.0452261306532673</v>
+        <v>10.989010989010989</v>
       </c>
       <c r="E5" s="1">
         <v>12.7</v>
@@ -17965,7 +18019,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>3.654773869346732</v>
+        <v>1.7109890109890102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17977,11 +18031,11 @@
       </c>
       <c r="C6" s="1">
         <f t="array" ref="C6">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B6,"")))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <f>(C6/B27)*100</f>
-        <v>4.0201005025125625</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="E6" s="1">
         <v>2.23</v>
@@ -17991,7 +18045,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1.7901005025125625</v>
+        <v>1.066703296703297</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -18007,7 +18061,7 @@
       </c>
       <c r="D7" s="1">
         <f>(C7/B27)*100</f>
-        <v>3.5175879396984926</v>
+        <v>2.5641025641025639</v>
       </c>
       <c r="E7" s="1">
         <v>2.02</v>
@@ -18017,7 +18071,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.4975879396984926</v>
+        <v>0.54410256410256386</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -18029,11 +18083,11 @@
       </c>
       <c r="C8" s="1">
         <f t="array" ref="C8">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B8,"")))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <f>(C8/B27)*100</f>
-        <v>2.512562814070352</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="E8" s="1">
         <v>6.09</v>
@@ -18043,23 +18097,23 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>3.5774371859296479</v>
+        <v>3.8921978021978019</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="array" ref="C9">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B9,"")))</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <f>(C9/B27)*100</f>
-        <v>8.5427135678391952</v>
+        <v>8.791208791208792</v>
       </c>
       <c r="E9" s="1">
         <v>6.97</v>
@@ -18069,23 +18123,23 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1.5727135678391955</v>
+        <v>1.8212087912087922</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1">
         <f t="array" ref="C10">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B10,"")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <f>(C10/B27)*100</f>
-        <v>0</v>
+        <v>0.36630036630036628</v>
       </c>
       <c r="E10" s="1">
         <v>0.15</v>
@@ -18095,23 +18149,23 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.21630036630036628</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <f t="array" ref="C11">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B11,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <f>(C11/B27)*100</f>
-        <v>0.50251256281407031</v>
+        <v>0.73260073260073255</v>
       </c>
       <c r="E11" s="1">
         <v>0.77</v>
@@ -18121,23 +18175,23 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.26748743718592971</v>
+        <v>3.7399267399267466E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <f t="array" ref="C12">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B12,"")))</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <f>(C12/B27)*100</f>
-        <v>10.050251256281408</v>
+        <v>8.4249084249084252</v>
       </c>
       <c r="E12" s="1">
         <v>4.03</v>
@@ -18147,23 +18201,23 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>6.0202512562814077</v>
+        <v>4.3949084249084249</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
         <f t="array" ref="C13">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B13,"")))</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <f>(C13/B27)*100</f>
-        <v>3.5175879396984926</v>
+        <v>5.4945054945054945</v>
       </c>
       <c r="E13" s="1">
         <v>2.41</v>
@@ -18173,23 +18227,23 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1.1075879396984925</v>
+        <v>3.0845054945054944</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
         <f t="array" ref="C14">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B14,"")))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
         <f>(C14/B27)*100</f>
-        <v>6.5326633165829149</v>
+        <v>5.8608058608058604</v>
       </c>
       <c r="E14" s="1">
         <v>6.75</v>
@@ -18199,23 +18253,23 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.21733668341708512</v>
+        <v>0.88919413919413959</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">
         <f t="array" ref="C15">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B15,"")))</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <f>(C15/B27)*100</f>
-        <v>10.050251256281408</v>
+        <v>9.1575091575091569</v>
       </c>
       <c r="E15" s="1">
         <v>7.51</v>
@@ -18225,23 +18279,23 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>2.5402512562814081</v>
+        <v>1.6475091575091572</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1">
         <f t="array" ref="C16">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B16,"")))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
         <f>(C16/B27)*100</f>
-        <v>2.512562814070352</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="E16" s="1">
         <v>1.93</v>
@@ -18251,12 +18305,12 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.58256281407035204</v>
+        <v>0.26780219780219805</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -18282,18 +18336,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f t="array" ref="C18">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B18,"")))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
         <f>(C18/B27)*100</f>
-        <v>5.025125628140704</v>
+        <v>5.4945054945054945</v>
       </c>
       <c r="E18" s="1">
         <v>5.99</v>
@@ -18303,20 +18357,23 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.96487437185929625</v>
+        <v>0.49549450549450569</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
         <f t="array" ref="C19">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B19,"")))</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <f>(C19/B27)*100</f>
-        <v>6.0301507537688437</v>
+        <v>6.9597069597069599</v>
       </c>
       <c r="E19" s="1">
         <v>6.33</v>
@@ -18326,20 +18383,23 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0.29984924623115639</v>
+        <v>0.62970695970695978</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
         <f t="array" ref="C20">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B20,"")))</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
         <f>(C20/B27)*100</f>
-        <v>7.5376884422110546</v>
+        <v>8.0586080586080584</v>
       </c>
       <c r="E20" s="1">
         <v>9.06</v>
@@ -18349,20 +18409,23 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>1.5223115577889459</v>
+        <v>1.0013919413919421</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1">
         <f t="array" ref="C21">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B21,"")))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <f>(C21/B27)*100</f>
-        <v>1.5075376884422109</v>
+        <v>1.8315018315018317</v>
       </c>
       <c r="E21" s="1">
         <v>2.76</v>
@@ -18372,20 +18435,23 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>1.2524623115577889</v>
+        <v>0.92849816849816813</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1">
         <f t="array" ref="C22">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B22,"")))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <f>(C22/B27)*100</f>
-        <v>0</v>
+        <v>0.73260073260073255</v>
       </c>
       <c r="E22" s="1">
         <v>0.98</v>
@@ -18395,20 +18461,23 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.98</v>
+        <v>0.24739926739926743</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
         <f t="array" ref="C23">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B23,"")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <f>(C23/B27)*100</f>
-        <v>1.0050251256281406</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="E23" s="1">
         <v>2.36</v>
@@ -18418,20 +18487,23 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>1.3549748743718593</v>
+        <v>1.2610989010989009</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
         <f t="array" ref="C24">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B24,"")))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <f>(C24/B27)*100</f>
-        <v>0</v>
+        <v>0.73260073260073255</v>
       </c>
       <c r="E24" s="1">
         <v>0.15</v>
@@ -18441,20 +18513,23 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.58260073260073253</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
         <f t="array" ref="C25">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B25,"")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <f>(C25/B27)*100</f>
-        <v>0</v>
+        <v>0.36630036630036628</v>
       </c>
       <c r="E25" s="1">
         <v>1.97</v>
@@ -18464,10 +18539,13 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>1.97</v>
+        <v>1.6036996336996336</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -18491,9 +18569,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
       <c r="B27">
         <f>SUM(C1:C26)</f>
-        <v>199</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -18516,8 +18597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18537,11 +18618,11 @@
       </c>
       <c r="C1" s="1">
         <f t="array" ref="C1">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B1,"")))</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1">
         <f>(C1/B27)*100</f>
-        <v>11.235955056179774</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E1" s="1">
         <v>8.17</v>
@@ -18551,7 +18632,7 @@
       </c>
       <c r="G1">
         <f t="shared" ref="G1:G26" si="0">ABS(E1-D1)</f>
-        <v>3.0659550561797744</v>
+        <v>1.0299999999999994</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -18563,11 +18644,11 @@
       </c>
       <c r="C2" s="1">
         <f t="array" ref="C2">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B2,"")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <f>(C2/B27)*100</f>
-        <v>1.1235955056179776</v>
+        <v>1.2</v>
       </c>
       <c r="E2" s="1">
         <v>1.49</v>
@@ -18577,7 +18658,7 @@
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.36640449438202238</v>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18593,7 +18674,7 @@
       </c>
       <c r="D3" s="1">
         <f>(C3/B27)*100</f>
-        <v>3.3707865168539324</v>
+        <v>2.4</v>
       </c>
       <c r="E3" s="1">
         <v>2.78</v>
@@ -18603,7 +18684,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.59078651685393258</v>
+        <v>0.37999999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18615,11 +18696,11 @@
       </c>
       <c r="C4" s="1">
         <f t="array" ref="C4">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B4,"")))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <f>(C4/B27)*100</f>
-        <v>2.2471910112359552</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>4.25</v>
@@ -18629,7 +18710,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>2.0028089887640448</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18641,11 +18722,11 @@
       </c>
       <c r="C5" s="1">
         <f t="array" ref="C5">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B5,"")))</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <f>(C5/B27)*100</f>
-        <v>6.7415730337078648</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E5" s="1">
         <v>12.7</v>
@@ -18655,7 +18736,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>5.9584269662921345</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -18667,11 +18748,11 @@
       </c>
       <c r="C6" s="1">
         <f t="array" ref="C6">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B6,"")))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <f>(C6/B27)*100</f>
-        <v>1.6853932584269662</v>
+        <v>1.6</v>
       </c>
       <c r="E6" s="1">
         <v>2.23</v>
@@ -18681,12 +18762,12 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.54460674157303379</v>
+        <v>0.62999999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -18697,7 +18778,7 @@
       </c>
       <c r="D7" s="1">
         <f>(C7/B27)*100</f>
-        <v>3.3707865168539324</v>
+        <v>2.4</v>
       </c>
       <c r="E7" s="1">
         <v>2.02</v>
@@ -18707,23 +18788,23 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.3507865168539324</v>
+        <v>0.37999999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
         <f t="array" ref="C8">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B8,"")))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <f>(C8/B27)*100</f>
-        <v>5.0561797752808983</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
         <v>6.09</v>
@@ -18733,23 +18814,23 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.0338202247191015</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="array" ref="C9">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B9,"")))</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <f>(C9/B27)*100</f>
-        <v>8.4269662921348321</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E9" s="1">
         <v>6.97</v>
@@ -18759,12 +18840,12 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1.4569662921348323</v>
+        <v>2.2299999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -18790,18 +18871,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1">
         <f t="array" ref="C11">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B11,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <f>(C11/B27)*100</f>
-        <v>0.5617977528089888</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="1">
         <v>0.77</v>
@@ -18811,23 +18892,23 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.20820224719101121</v>
+        <v>3.0000000000000027E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
         <f t="array" ref="C12">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B12,"")))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <f>(C12/B27)*100</f>
-        <v>7.3033707865168536</v>
+        <v>6.4</v>
       </c>
       <c r="E12" s="1">
         <v>4.03</v>
@@ -18837,23 +18918,23 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>3.2733707865168533</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
         <f t="array" ref="C13">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B13,"")))</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
         <f>(C13/B27)*100</f>
-        <v>3.9325842696629212</v>
+        <v>6.4</v>
       </c>
       <c r="E13" s="1">
         <v>2.41</v>
@@ -18863,23 +18944,23 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1.522584269662921</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
         <f t="array" ref="C14">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B14,"")))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
         <f>(C14/B27)*100</f>
-        <v>6.7415730337078648</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
         <v>6.75</v>
@@ -18889,23 +18970,23 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>8.4269662921352406E-3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">
         <f t="array" ref="C15">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B15,"")))</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1">
         <f>(C15/B27)*100</f>
-        <v>5.0561797752808983</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="E15" s="1">
         <v>7.51</v>
@@ -18915,23 +18996,23 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>2.4538202247191014</v>
+        <v>1.9099999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1">
         <f t="array" ref="C16">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B16,"")))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
         <f>(C16/B27)*100</f>
-        <v>3.9325842696629212</v>
+        <v>3.2</v>
       </c>
       <c r="E16" s="1">
         <v>1.93</v>
@@ -18941,12 +19022,12 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>2.002584269662921</v>
+        <v>1.2700000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -18957,7 +19038,7 @@
       </c>
       <c r="D17" s="1">
         <f>(C17/B27)*100</f>
-        <v>0.5617977528089888</v>
+        <v>0.4</v>
       </c>
       <c r="E17" s="1">
         <v>0.1</v>
@@ -18967,20 +19048,23 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0.46179775280898883</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1">
         <f t="array" ref="C18">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B18,"")))</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <f>(C18/B27)*100</f>
-        <v>6.7415730337078648</v>
+        <v>6.4</v>
       </c>
       <c r="E18" s="1">
         <v>5.99</v>
@@ -18990,20 +19074,23 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.75157303370786455</v>
+        <v>0.41000000000000014</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1">
         <f t="array" ref="C19">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B19,"")))</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
         <f>(C19/B27)*100</f>
-        <v>9.5505617977528079</v>
+        <v>9.6</v>
       </c>
       <c r="E19" s="1">
         <v>6.33</v>
@@ -19013,20 +19100,23 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>3.2205617977528078</v>
+        <v>3.2699999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1">
         <f t="array" ref="C20">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B20,"")))</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <f>(C20/B27)*100</f>
-        <v>6.179775280898876</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="E20" s="1">
         <v>9.06</v>
@@ -19036,20 +19126,23 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>2.8802247191011245</v>
+        <v>1.8600000000000012</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1">
         <f t="array" ref="C21">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B21,"")))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
         <f>(C21/B27)*100</f>
-        <v>2.8089887640449436</v>
+        <v>2.4</v>
       </c>
       <c r="E21" s="1">
         <v>2.76</v>
@@ -19059,20 +19152,23 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>4.8988764044943789E-2</v>
+        <v>0.35999999999999988</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1">
         <f t="array" ref="C22">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B22,"")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
         <f>(C22/B27)*100</f>
-        <v>1.1235955056179776</v>
+        <v>1.2</v>
       </c>
       <c r="E22" s="1">
         <v>0.98</v>
@@ -19082,20 +19178,23 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.14359550561797763</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
         <f t="array" ref="C23">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B23,"")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <f>(C23/B27)*100</f>
-        <v>1.1235955056179776</v>
+        <v>1.2</v>
       </c>
       <c r="E23" s="1">
         <v>2.36</v>
@@ -19105,20 +19204,23 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>1.2364044943820223</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
         <f t="array" ref="C24">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B24,"")))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <f>(C24/B27)*100</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="1">
         <v>0.15</v>
@@ -19128,20 +19230,23 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
         <f t="array" ref="C25">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B25,"")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
         <f>(C25/B27)*100</f>
-        <v>1.1235955056179776</v>
+        <v>1.2</v>
       </c>
       <c r="E25" s="1">
         <v>1.97</v>
@@ -19151,10 +19256,13 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>0.84640449438202237</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -19180,7 +19288,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>SUM(C1:C26)</f>
-        <v>178</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -19203,8 +19311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19228,7 +19336,7 @@
       </c>
       <c r="D1" s="1">
         <f>(C1/B27)*100</f>
-        <v>5.1020408163265305</v>
+        <v>4.6728971962616823</v>
       </c>
       <c r="E1" s="1">
         <v>8.17</v>
@@ -19238,7 +19346,7 @@
       </c>
       <c r="G1">
         <f t="shared" ref="G1:G26" si="0">ABS(E1-D1)</f>
-        <v>3.0679591836734694</v>
+        <v>3.4971028037383176</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -19254,7 +19362,7 @@
       </c>
       <c r="D2" s="1">
         <f>(C2/B27)*100</f>
-        <v>2.0408163265306123</v>
+        <v>1.8691588785046727</v>
       </c>
       <c r="E2" s="1">
         <v>1.49</v>
@@ -19264,7 +19372,7 @@
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.5508163265306123</v>
+        <v>0.37915887850467267</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19280,7 +19388,7 @@
       </c>
       <c r="D3" s="1">
         <f>(C3/B27)*100</f>
-        <v>3.0612244897959182</v>
+        <v>2.8037383177570092</v>
       </c>
       <c r="E3" s="1">
         <v>2.78</v>
@@ -19290,7 +19398,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.28122448979591841</v>
+        <v>2.3738317757009408E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19321,18 +19429,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <f t="array" ref="C5">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B5,"")))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <f>(C5/B27)*100</f>
-        <v>7.1428571428571423</v>
+        <v>7.4766355140186906</v>
       </c>
       <c r="E5" s="1">
         <v>12.7</v>
@@ -19342,23 +19450,23 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>5.5571428571428569</v>
+        <v>5.2233644859813086</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
         <f t="array" ref="C6">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B6,"")))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <f>(C6/B27)*100</f>
-        <v>3.0612244897959182</v>
+        <v>3.7383177570093453</v>
       </c>
       <c r="E6" s="1">
         <v>2.23</v>
@@ -19368,12 +19476,12 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.83122448979591823</v>
+        <v>1.5083177570093453</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -19384,7 +19492,7 @@
       </c>
       <c r="D7" s="1">
         <f>(C7/B27)*100</f>
-        <v>5.1020408163265305</v>
+        <v>4.6728971962616823</v>
       </c>
       <c r="E7" s="1">
         <v>2.02</v>
@@ -19394,12 +19502,12 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>3.0820408163265305</v>
+        <v>2.6528971962616823</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -19410,7 +19518,7 @@
       </c>
       <c r="D8" s="1">
         <f>(C8/B27)*100</f>
-        <v>3.0612244897959182</v>
+        <v>2.8037383177570092</v>
       </c>
       <c r="E8" s="1">
         <v>6.09</v>
@@ -19420,23 +19528,23 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>3.0287755102040816</v>
+        <v>3.2862616822429906</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="array" ref="C9">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B9,"")))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <f>(C9/B27)*100</f>
-        <v>10.204081632653061</v>
+        <v>10.2803738317757</v>
       </c>
       <c r="E9" s="1">
         <v>6.97</v>
@@ -19446,12 +19554,12 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>3.2340816326530613</v>
+        <v>3.3103738317757001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -19476,6 +19584,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -19485,7 +19596,7 @@
       </c>
       <c r="D11" s="1">
         <f>(C11/B27)*100</f>
-        <v>1.0204081632653061</v>
+        <v>0.93457943925233633</v>
       </c>
       <c r="E11" s="1">
         <v>0.77</v>
@@ -19495,7 +19606,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.25040816326530613</v>
+        <v>0.16457943925233631</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -19508,7 +19619,7 @@
       </c>
       <c r="D12" s="1">
         <f>(C12/B27)*100</f>
-        <v>5.1020408163265305</v>
+        <v>4.6728971962616823</v>
       </c>
       <c r="E12" s="1">
         <v>4.03</v>
@@ -19518,7 +19629,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>1.0720408163265303</v>
+        <v>0.64289719626168207</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -19527,11 +19638,11 @@
       </c>
       <c r="C13" s="1">
         <f t="array" ref="C13">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B13,"")))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <f>(C13/B27)*100</f>
-        <v>9.183673469387756</v>
+        <v>9.3457943925233646</v>
       </c>
       <c r="E13" s="1">
         <v>2.41</v>
@@ -19541,7 +19652,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>6.7736734693877558</v>
+        <v>6.9357943925233645</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -19554,7 +19665,7 @@
       </c>
       <c r="D14" s="1">
         <f>(C14/B27)*100</f>
-        <v>7.1428571428571423</v>
+        <v>6.5420560747663545</v>
       </c>
       <c r="E14" s="1">
         <v>6.75</v>
@@ -19564,7 +19675,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.39285714285714235</v>
+        <v>0.20794392523364547</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -19573,11 +19684,11 @@
       </c>
       <c r="C15" s="1">
         <f t="array" ref="C15">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B15,"")))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <f>(C15/B27)*100</f>
-        <v>6.1224489795918364</v>
+        <v>6.5420560747663545</v>
       </c>
       <c r="E15" s="1">
         <v>7.51</v>
@@ -19587,7 +19698,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1.3875510204081634</v>
+        <v>0.96794392523364525</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -19642,11 +19753,11 @@
       </c>
       <c r="C18" s="1">
         <f t="array" ref="C18">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B18,"")))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
         <f>(C18/B27)*100</f>
-        <v>6.1224489795918364</v>
+        <v>7.4766355140186906</v>
       </c>
       <c r="E18" s="1">
         <v>5.99</v>
@@ -19656,7 +19767,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.13244897959183621</v>
+        <v>1.4866355140186904</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -19665,11 +19776,11 @@
       </c>
       <c r="C19" s="1">
         <f t="array" ref="C19">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B19,"")))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
         <f>(C19/B27)*100</f>
-        <v>14.285714285714285</v>
+        <v>14.018691588785046</v>
       </c>
       <c r="E19" s="1">
         <v>6.33</v>
@@ -19679,7 +19790,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>7.9557142857142846</v>
+        <v>7.688691588785046</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -19688,11 +19799,11 @@
       </c>
       <c r="C20" s="1">
         <f t="array" ref="C20">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B20,"")))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
         <f>(C20/B27)*100</f>
-        <v>6.1224489795918364</v>
+        <v>6.5420560747663545</v>
       </c>
       <c r="E20" s="1">
         <v>9.06</v>
@@ -19702,7 +19813,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>2.9375510204081641</v>
+        <v>2.517943925233646</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -19715,7 +19826,7 @@
       </c>
       <c r="D21" s="1">
         <f>(C21/B27)*100</f>
-        <v>4.0816326530612246</v>
+        <v>3.7383177570093453</v>
       </c>
       <c r="E21" s="1">
         <v>2.76</v>
@@ -19725,7 +19836,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>1.3216326530612248</v>
+        <v>0.97831775700934553</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -19761,7 +19872,7 @@
       </c>
       <c r="D23" s="1">
         <f>(C23/B27)*100</f>
-        <v>1.0204081632653061</v>
+        <v>0.93457943925233633</v>
       </c>
       <c r="E23" s="1">
         <v>2.36</v>
@@ -19771,7 +19882,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>1.3395918367346937</v>
+        <v>1.4254205607476635</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -19807,7 +19918,7 @@
       </c>
       <c r="D25" s="1">
         <f>(C25/B27)*100</f>
-        <v>1.0204081632653061</v>
+        <v>0.93457943925233633</v>
       </c>
       <c r="E25" s="1">
         <v>1.97</v>
@@ -19817,7 +19928,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>0.94959183673469383</v>
+        <v>1.0354205607476636</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -19846,7 +19957,7 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>SUM(C1:C26)</f>
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -19869,8 +19980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19890,11 +20001,11 @@
       </c>
       <c r="C1" s="1">
         <f t="array" ref="C1">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B1,"")))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1">
         <f>(C1/B27)*100</f>
-        <v>7.3684210526315779</v>
+        <v>7.3394495412844041</v>
       </c>
       <c r="E1" s="1">
         <v>8.17</v>
@@ -19904,7 +20015,7 @@
       </c>
       <c r="G1">
         <f t="shared" ref="G1:G26" si="0">ABS(E1-D1)</f>
-        <v>0.80157894736842206</v>
+        <v>0.83055045871559585</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -19920,7 +20031,7 @@
       </c>
       <c r="D2" s="1">
         <f>(C2/B27)*100</f>
-        <v>1.0526315789473684</v>
+        <v>0.91743119266055051</v>
       </c>
       <c r="E2" s="1">
         <v>1.49</v>
@@ -19930,7 +20041,7 @@
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.43736842105263163</v>
+        <v>0.57256880733944948</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -19946,7 +20057,7 @@
       </c>
       <c r="D3" s="1">
         <f>(C3/B27)*100</f>
-        <v>3.1578947368421053</v>
+        <v>2.7522935779816518</v>
       </c>
       <c r="E3" s="1">
         <v>2.78</v>
@@ -19956,7 +20067,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.37789473684210551</v>
+        <v>2.7706422018348054E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -19968,11 +20079,11 @@
       </c>
       <c r="C4" s="1">
         <f t="array" ref="C4">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B4,"")))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <f>(C4/B27)*100</f>
-        <v>5.2631578947368416</v>
+        <v>5.5045871559633035</v>
       </c>
       <c r="E4" s="1">
         <v>4.25</v>
@@ -19982,7 +20093,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1.0131578947368416</v>
+        <v>1.2545871559633035</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -19994,11 +20105,11 @@
       </c>
       <c r="C5" s="1">
         <f t="array" ref="C5">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B5,"")))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <f>(C5/B27)*100</f>
-        <v>10.526315789473683</v>
+        <v>10.091743119266056</v>
       </c>
       <c r="E5" s="1">
         <v>12.7</v>
@@ -20008,7 +20119,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2.1736842105263161</v>
+        <v>2.6082568807339435</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -20020,11 +20131,11 @@
       </c>
       <c r="C6" s="1">
         <f t="array" ref="C6">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B6,"")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <f>(C6/B27)*100</f>
-        <v>2.1052631578947367</v>
+        <v>2.7522935779816518</v>
       </c>
       <c r="E6" s="1">
         <v>2.23</v>
@@ -20034,7 +20145,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.12473684210526326</v>
+        <v>0.52229357798165177</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -20046,11 +20157,11 @@
       </c>
       <c r="C7" s="1">
         <f t="array" ref="C7">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B7,"")))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <f>(C7/B27)*100</f>
-        <v>3.1578947368421053</v>
+        <v>3.669724770642202</v>
       </c>
       <c r="E7" s="1">
         <v>2.02</v>
@@ -20060,7 +20171,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.1378947368421053</v>
+        <v>1.649724770642202</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -20072,11 +20183,11 @@
       </c>
       <c r="C8" s="1">
         <f t="array" ref="C8">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B8,"")))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <f>(C8/B27)*100</f>
-        <v>3.1578947368421053</v>
+        <v>4.5871559633027523</v>
       </c>
       <c r="E8" s="1">
         <v>6.09</v>
@@ -20086,12 +20197,12 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2.9321052631578945</v>
+        <v>1.5028440366972475</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -20102,7 +20213,7 @@
       </c>
       <c r="D9" s="1">
         <f>(C9/B27)*100</f>
-        <v>7.3684210526315779</v>
+        <v>6.4220183486238538</v>
       </c>
       <c r="E9" s="1">
         <v>6.97</v>
@@ -20112,12 +20223,12 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.39842105263157812</v>
+        <v>0.54798165137614596</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -20143,7 +20254,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -20154,7 +20265,7 @@
       </c>
       <c r="D11" s="1">
         <f>(C11/B27)*100</f>
-        <v>1.0526315789473684</v>
+        <v>0.91743119266055051</v>
       </c>
       <c r="E11" s="1">
         <v>0.77</v>
@@ -20164,12 +20275,12 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.28263157894736834</v>
+        <v>0.14743119266055049</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -20180,7 +20291,7 @@
       </c>
       <c r="D12" s="1">
         <f>(C12/B27)*100</f>
-        <v>4.2105263157894735</v>
+        <v>3.669724770642202</v>
       </c>
       <c r="E12" s="1">
         <v>4.03</v>
@@ -20190,10 +20301,13 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.1805263157894732</v>
+        <v>0.36027522935779821</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -20203,7 +20317,7 @@
       </c>
       <c r="D13" s="1">
         <f>(C13/B27)*100</f>
-        <v>2.1052631578947367</v>
+        <v>1.834862385321101</v>
       </c>
       <c r="E13" s="1">
         <v>2.41</v>
@@ -20213,7 +20327,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.30473684210526342</v>
+        <v>0.57513761467889912</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -20226,7 +20340,7 @@
       </c>
       <c r="D14" s="1">
         <f>(C14/B27)*100</f>
-        <v>7.3684210526315779</v>
+        <v>6.4220183486238538</v>
       </c>
       <c r="E14" s="1">
         <v>6.75</v>
@@ -20236,7 +20350,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.61842105263157787</v>
+        <v>0.32798165137614621</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -20245,11 +20359,11 @@
       </c>
       <c r="C15" s="1">
         <f t="array" ref="C15">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B15,"")))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
         <f>(C15/B27)*100</f>
-        <v>6.3157894736842106</v>
+        <v>7.3394495412844041</v>
       </c>
       <c r="E15" s="1">
         <v>7.51</v>
@@ -20259,7 +20373,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1.1942105263157892</v>
+        <v>0.17055045871559571</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -20272,7 +20386,7 @@
       </c>
       <c r="D16" s="1">
         <f>(C16/B27)*100</f>
-        <v>1.0526315789473684</v>
+        <v>0.91743119266055051</v>
       </c>
       <c r="E16" s="1">
         <v>1.93</v>
@@ -20282,7 +20396,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.87736842105263158</v>
+        <v>1.0125688073394494</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -20314,11 +20428,11 @@
       </c>
       <c r="C18" s="1">
         <f t="array" ref="C18">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B18,"")))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <f>(C18/B27)*100</f>
-        <v>10.526315789473683</v>
+        <v>10.091743119266056</v>
       </c>
       <c r="E18" s="1">
         <v>5.99</v>
@@ -20328,7 +20442,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>4.536315789473683</v>
+        <v>4.1017431192660556</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -20337,11 +20451,11 @@
       </c>
       <c r="C19" s="1">
         <f t="array" ref="C19">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B19,"")))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1">
         <f>(C19/B27)*100</f>
-        <v>7.3684210526315779</v>
+        <v>7.3394495412844041</v>
       </c>
       <c r="E19" s="1">
         <v>6.33</v>
@@ -20351,7 +20465,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>1.0384210526315778</v>
+        <v>1.009449541284404</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -20360,11 +20474,11 @@
       </c>
       <c r="C20" s="1">
         <f t="array" ref="C20">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B20,"")))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
         <f>(C20/B27)*100</f>
-        <v>6.3157894736842106</v>
+        <v>7.3394495412844041</v>
       </c>
       <c r="E20" s="1">
         <v>9.06</v>
@@ -20374,7 +20488,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>2.7442105263157899</v>
+        <v>1.7205504587155964</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -20387,7 +20501,7 @@
       </c>
       <c r="D21" s="1">
         <f>(C21/B27)*100</f>
-        <v>6.3157894736842106</v>
+        <v>5.5045871559633035</v>
       </c>
       <c r="E21" s="1">
         <v>2.76</v>
@@ -20397,7 +20511,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>3.5557894736842108</v>
+        <v>2.7445871559633037</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -20410,7 +20524,7 @@
       </c>
       <c r="D22" s="1">
         <f>(C22/B27)*100</f>
-        <v>1.0526315789473684</v>
+        <v>0.91743119266055051</v>
       </c>
       <c r="E22" s="1">
         <v>0.98</v>
@@ -20420,7 +20534,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>7.263157894736838E-2</v>
+        <v>6.2568807339449473E-2</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -20429,11 +20543,11 @@
       </c>
       <c r="C23" s="1">
         <f t="array" ref="C23">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B23,"")))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
         <f>(C23/B27)*100</f>
-        <v>3.1578947368421053</v>
+        <v>3.669724770642202</v>
       </c>
       <c r="E23" s="1">
         <v>2.36</v>
@@ -20443,7 +20557,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.79789473684210543</v>
+        <v>1.3097247706422022</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -20518,7 +20632,7 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>SUM(C1:C26)</f>
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -20542,7 +20656,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20562,11 +20676,11 @@
       </c>
       <c r="C1" s="1">
         <f t="array" ref="C1">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B1,"")))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1">
         <f>(C1/B27)*100</f>
-        <v>6.4220183486238538</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="E1" s="1">
         <v>8.17</v>
@@ -20576,7 +20690,7 @@
       </c>
       <c r="G1">
         <f t="shared" ref="G1:G26" si="0">ABS(E1-D1)</f>
-        <v>1.7479816513761461</v>
+        <v>2.4557142857142855</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -20588,11 +20702,11 @@
       </c>
       <c r="C2" s="1">
         <f t="array" ref="C2">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B2,"")))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <f>(C2/B27)*100</f>
-        <v>2.7522935779816518</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="E2" s="1">
         <v>1.49</v>
@@ -20602,7 +20716,7 @@
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>1.2622935779816518</v>
+        <v>1.3671428571428572</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -20618,7 +20732,7 @@
       </c>
       <c r="D3" s="1">
         <f>(C3/B27)*100</f>
-        <v>2.7522935779816518</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="E3" s="1">
         <v>2.78</v>
@@ -20628,7 +20742,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>2.7706422018348054E-2</v>
+        <v>0.63714285714285701</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -20640,11 +20754,11 @@
       </c>
       <c r="C4" s="1">
         <f t="array" ref="C4">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B4,"")))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <f>(C4/B27)*100</f>
-        <v>1.834862385321101</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="E4" s="1">
         <v>4.25</v>
@@ -20654,7 +20768,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>2.415137614678899</v>
+        <v>1.3928571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -20666,11 +20780,11 @@
       </c>
       <c r="C5" s="1">
         <f t="array" ref="C5">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B5,"")))</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <f>(C5/B27)*100</f>
-        <v>10.091743119266056</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="E5" s="1">
         <v>12.7</v>
@@ -20680,7 +20794,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2.6082568807339435</v>
+        <v>1.9857142857142858</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -20692,11 +20806,11 @@
       </c>
       <c r="C6" s="1">
         <f t="array" ref="C6">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B6,"")))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <f>(C6/B27)*100</f>
-        <v>1.834862385321101</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="E6" s="1">
         <v>2.23</v>
@@ -20706,7 +20820,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.39513761467889896</v>
+        <v>0.62714285714285722</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -20718,11 +20832,11 @@
       </c>
       <c r="C7" s="1">
         <f t="array" ref="C7">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B7,"")))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <f>(C7/B27)*100</f>
-        <v>0.91743119266055051</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="E7" s="1">
         <v>2.02</v>
@@ -20732,23 +20846,23 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.1025688073394495</v>
+        <v>0.59142857142857141</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
         <f t="array" ref="C8">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B8,"")))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <f>(C8/B27)*100</f>
-        <v>4.5871559633027523</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1">
         <v>6.09</v>
@@ -20758,23 +20872,23 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.5028440366972475</v>
+        <v>1.0899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="array" ref="C9">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B9,"")))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <f>(C9/B27)*100</f>
-        <v>7.3394495412844041</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="E9" s="1">
         <v>6.97</v>
@@ -20784,12 +20898,12 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.36944954128440433</v>
+        <v>0.1728571428571426</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -20800,7 +20914,7 @@
       </c>
       <c r="D10" s="1">
         <f>(C10/B27)*100</f>
-        <v>0.91743119266055051</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" s="1">
         <v>0.15</v>
@@ -20810,12 +20924,12 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.76743119266055049</v>
+        <v>0.56428571428571428</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -20826,7 +20940,7 @@
       </c>
       <c r="D11" s="1">
         <f>(C11/B27)*100</f>
-        <v>1.834862385321101</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="E11" s="1">
         <v>0.77</v>
@@ -20836,10 +20950,13 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>1.064862385321101</v>
+        <v>0.65857142857142859</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -20849,7 +20966,7 @@
       </c>
       <c r="D12" s="1">
         <f>(C12/B27)*100</f>
-        <v>5.5045871559633035</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="E12" s="1">
         <v>4.03</v>
@@ -20859,20 +20976,23 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>1.4745871559633033</v>
+        <v>0.25571428571428534</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
         <f t="array" ref="C13">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B13,"")))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
         <f>(C13/B27)*100</f>
-        <v>3.669724770642202</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="E13" s="1">
         <v>2.41</v>
@@ -20882,20 +21002,23 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1.2597247706422019</v>
+        <v>1.8757142857142854</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
         <f t="array" ref="C14">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B14,"")))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <f>(C14/B27)*100</f>
-        <v>8.2568807339449553</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="E14" s="1">
         <v>6.75</v>
@@ -20905,7 +21028,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1.5068807339449553</v>
+        <v>0.39285714285714235</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -20914,11 +21037,11 @@
       </c>
       <c r="C15" s="1">
         <f t="array" ref="C15">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B15,"")))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
         <f>(C15/B27)*100</f>
-        <v>7.3394495412844041</v>
+        <v>7.8571428571428568</v>
       </c>
       <c r="E15" s="1">
         <v>7.51</v>
@@ -20928,7 +21051,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.17055045871559571</v>
+        <v>0.34714285714285698</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -20941,7 +21064,7 @@
       </c>
       <c r="D16" s="1">
         <f>(C16/B27)*100</f>
-        <v>0.91743119266055051</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" s="1">
         <v>1.93</v>
@@ -20951,7 +21074,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1.0125688073394494</v>
+        <v>1.2157142857142857</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -20983,11 +21106,11 @@
       </c>
       <c r="C18" s="1">
         <f t="array" ref="C18">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B18,"")))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <f>(C18/B27)*100</f>
-        <v>9.1743119266055047</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="E18" s="1">
         <v>5.99</v>
@@ -20997,7 +21120,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>3.1843119266055044</v>
+        <v>3.2957142857142863</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -21006,11 +21129,11 @@
       </c>
       <c r="C19" s="1">
         <f t="array" ref="C19">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B19,"")))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <f>(C19/B27)*100</f>
-        <v>7.3394495412844041</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="E19" s="1">
         <v>6.33</v>
@@ -21020,7 +21143,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>1.009449541284404</v>
+        <v>0.81285714285714228</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -21029,11 +21152,11 @@
       </c>
       <c r="C20" s="1">
         <f t="array" ref="C20">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B20,"")))</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
         <f>(C20/B27)*100</f>
-        <v>10.091743119266056</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="E20" s="1">
         <v>9.06</v>
@@ -21043,7 +21166,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>1.0317431192660553</v>
+        <v>1.654285714285713</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -21056,7 +21179,7 @@
       </c>
       <c r="D21" s="1">
         <f>(C21/B27)*100</f>
-        <v>2.7522935779816518</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="E21" s="1">
         <v>2.76</v>
@@ -21066,7 +21189,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>7.7064220183480359E-3</v>
+        <v>0.61714285714285699</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -21079,7 +21202,7 @@
       </c>
       <c r="D22" s="1">
         <f>(C22/B27)*100</f>
-        <v>0.91743119266055051</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E22" s="1">
         <v>0.98</v>
@@ -21089,7 +21212,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>6.2568807339449473E-2</v>
+        <v>0.26571428571428568</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -21098,11 +21221,11 @@
       </c>
       <c r="C23" s="1">
         <f t="array" ref="C23">SUM(LEN(A2:A2000)-LEN(SUBSTITUTE(A2:A2000,B23,"")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <f>(C23/B27)*100</f>
-        <v>1.834862385321101</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="E23" s="1">
         <v>2.36</v>
@@ -21112,7 +21235,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.52513761467889886</v>
+        <v>0.21714285714285708</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -21148,7 +21271,7 @@
       </c>
       <c r="D25" s="1">
         <f>(C25/B27)*100</f>
-        <v>0.91743119266055051</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E25" s="1">
         <v>1.97</v>
@@ -21158,7 +21281,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>1.0525688073394495</v>
+        <v>1.2557142857142858</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -21187,7 +21310,7 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>SUM(C1:C26)</f>
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -21208,76 +21331,88 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -21290,7 +21425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -21298,125 +21433,125 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <f>'High Damage Spells'!D1  / 'High Damage Spells'!E1</f>
-        <v>0.76899908360942526</v>
+        <v>0.75822402270339362</v>
       </c>
       <c r="C2">
         <f>'High Duration Spells'!D1  / 'High Duration Spells'!E1</f>
-        <v>1.1071268213773888</v>
+        <v>0.98636573544774275</v>
       </c>
       <c r="D2">
         <f>'High Instance Spells'!D1  / 'High Instance Spells'!E1</f>
-        <v>0.62448480003996698</v>
+        <v>0.57195804115810067</v>
       </c>
       <c r="E2">
         <f>'AOE Spells'!D1  / 'AOE Spells'!E1</f>
-        <v>1.3752698967172305</v>
+        <v>1.1260709914320686</v>
       </c>
       <c r="F2">
         <f>'High Knockback Spells'!D1  / 'High Knockback Spells'!E1</f>
-        <v>0.90188752174193121</v>
+        <v>0.8983414371217141</v>
       </c>
       <c r="G2">
         <f>'High Recoil Spells'!D1  / 'High Recoil Spells'!E1</f>
-        <v>0.78604875748149983</v>
+        <v>0.69942297604476311</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <f>'High Damage Spells'!D2  / 'High Damage Spells'!E2</f>
-        <v>2.1082961453318809</v>
+        <v>1.7817901051256162</v>
       </c>
       <c r="C3">
         <f>'High Duration Spells'!D2  / 'High Duration Spells'!E2</f>
-        <v>1.0117702606994705</v>
+        <v>0.73751751604100602</v>
       </c>
       <c r="D3">
         <f>'High Instance Spells'!D2  / 'High Instance Spells'!E2</f>
-        <v>1.3696753869332969</v>
+        <v>1.2544690459762904</v>
       </c>
       <c r="E3">
         <f>'AOE Spells'!D2  / 'AOE Spells'!E2</f>
-        <v>0.75409094336777016</v>
+        <v>0.80536912751677847</v>
       </c>
       <c r="F3">
         <f>'High Knockback Spells'!D2  / 'High Knockback Spells'!E2</f>
-        <v>0.70646414694454251</v>
+        <v>0.61572563265808755</v>
       </c>
       <c r="G3">
         <f>'High Recoil Spells'!D2  / 'High Recoil Spells'!E2</f>
-        <v>1.8471768979742629</v>
+        <v>1.9175455417066156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <f>'High Damage Spells'!D3  / 'High Damage Spells'!E3</f>
-        <v>0.75332404233681127</v>
+        <v>0.63665881454128737</v>
       </c>
       <c r="C4">
         <f>'High Duration Spells'!D3  / 'High Duration Spells'!E3</f>
-        <v>1.0845594880879217</v>
+        <v>0.79057633014467554</v>
       </c>
       <c r="D4">
         <f>'High Instance Spells'!D3  / 'High Instance Spells'!E3</f>
-        <v>1.101159888415798</v>
+        <v>1.0085389632219459</v>
       </c>
       <c r="E4">
         <f>'AOE Spells'!D3  / 'AOE Spells'!E3</f>
-        <v>1.2125131355589687</v>
+        <v>0.86330935251798568</v>
       </c>
       <c r="F4">
         <f>'High Knockback Spells'!D3  / 'High Knockback Spells'!E3</f>
-        <v>1.135933358576297</v>
+        <v>0.9900336611444791</v>
       </c>
       <c r="G4">
         <f>'High Recoil Spells'!D3  / 'High Recoil Spells'!E3</f>
-        <v>0.9900336611444791</v>
+        <v>0.77081192189105863</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <f>'High Damage Spells'!D4  / 'High Damage Spells'!E4</f>
-        <v>0.61595318755774553</v>
+        <v>0.62467464862051014</v>
       </c>
       <c r="C5">
         <f>'High Duration Spells'!D4  / 'High Duration Spells'!E4</f>
-        <v>1.0641442506650902</v>
+        <v>0.77569489334195219</v>
       </c>
       <c r="D5">
         <f>'High Instance Spells'!D4  / 'High Instance Spells'!E4</f>
@@ -21424,165 +21559,165 @@
       </c>
       <c r="E5">
         <f>'AOE Spells'!D4  / 'AOE Spells'!E4</f>
-        <v>0.52875082617316593</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="F5">
         <f>'High Knockback Spells'!D4  / 'High Knockback Spells'!E4</f>
-        <v>1.2383900928792568</v>
+        <v>1.2951969778737185</v>
       </c>
       <c r="G5">
         <f>'High Recoil Spells'!D4  / 'High Recoil Spells'!E4</f>
-        <v>0.43173232595790612</v>
+        <v>0.67226890756302526</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <f>'High Damage Spells'!D5  / 'High Damage Spells'!E5</f>
-        <v>0.82450426680958078</v>
+        <v>0.83617866350776959</v>
       </c>
       <c r="C6">
         <f>'High Duration Spells'!D5  / 'High Duration Spells'!E5</f>
-        <v>0.7122225299726983</v>
+        <v>0.86527645582763701</v>
       </c>
       <c r="D6">
         <f>'High Instance Spells'!D5  / 'High Instance Spells'!E5</f>
-        <v>0.56242969628796402</v>
+        <v>0.58871145779674727</v>
       </c>
       <c r="E6">
         <f>'AOE Spells'!D5  / 'AOE Spells'!E5</f>
-        <v>0.53083252233920197</v>
+        <v>0.72440944881889757</v>
       </c>
       <c r="F6">
         <f>'High Knockback Spells'!D5  / 'High Knockback Spells'!E5</f>
-        <v>0.82884376295068374</v>
+        <v>0.79462544246189415</v>
       </c>
       <c r="G6">
         <f>'High Recoil Spells'!D5  / 'High Recoil Spells'!E5</f>
-        <v>0.79462544246189415</v>
+        <v>0.84364454443194603</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <f>'High Damage Spells'!D6  / 'High Damage Spells'!E6</f>
-        <v>1.6434625407930878</v>
+        <v>1.7857851502043731</v>
       </c>
       <c r="C7">
         <f>'High Duration Spells'!D6  / 'High Duration Spells'!E6</f>
-        <v>1.802735651350925</v>
+        <v>1.4783422855171735</v>
       </c>
       <c r="D7">
         <f>'High Instance Spells'!D6  / 'High Instance Spells'!E6</f>
-        <v>1.3727464079802323</v>
+        <v>1.6763756757889441</v>
       </c>
       <c r="E7">
         <f>'AOE Spells'!D6  / 'AOE Spells'!E6</f>
-        <v>0.75578173023630768</v>
+        <v>0.71748878923766823</v>
       </c>
       <c r="F7">
         <f>'High Knockback Spells'!D6  / 'High Knockback Spells'!E6</f>
-        <v>0.94406419636535277</v>
+        <v>1.2342123668079157</v>
       </c>
       <c r="G7">
         <f>'High Recoil Spells'!D6  / 'High Recoil Spells'!E6</f>
-        <v>0.82280824453861034</v>
+        <v>1.2812299807815504</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B8">
         <f>'High Damage Spells'!D7  / 'High Damage Spells'!E7</f>
-        <v>2.3326940023845317</v>
+        <v>2.1904845351791815</v>
       </c>
       <c r="C8">
         <f>'High Duration Spells'!D7  / 'High Duration Spells'!E7</f>
-        <v>1.7413801681675707</v>
+        <v>1.2693577050012692</v>
       </c>
       <c r="D8">
         <f>'High Instance Spells'!D7  / 'High Instance Spells'!E7</f>
-        <v>2.5257627803596687</v>
+        <v>2.3133154436939023</v>
       </c>
       <c r="E8">
         <f>'AOE Spells'!D7  / 'AOE Spells'!E7</f>
-        <v>1.6687061964623426</v>
+        <v>1.1881188118811881</v>
       </c>
       <c r="F8">
         <f>'High Knockback Spells'!D7  / 'High Knockback Spells'!E7</f>
-        <v>1.5633142261594581</v>
+        <v>1.8166954310109911</v>
       </c>
       <c r="G8">
         <f>'High Recoil Spells'!D7  / 'High Recoil Spells'!E7</f>
-        <v>0.45417385775274777</v>
+        <v>0.70721357850070721</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B9">
         <f>'High Damage Spells'!D8  / 'High Damage Spells'!E8</f>
-        <v>0.51582286642766872</v>
+        <v>0.65390819128994293</v>
       </c>
       <c r="C9">
         <f>'High Duration Spells'!D8  / 'High Duration Spells'!E8</f>
-        <v>0.41257189065194616</v>
+        <v>0.36088706039444962</v>
       </c>
       <c r="D9">
         <f>'High Instance Spells'!D8  / 'High Instance Spells'!E8</f>
-        <v>0.50266411983512616</v>
+        <v>0.46038396022282585</v>
       </c>
       <c r="E9">
         <f>'AOE Spells'!D8  / 'AOE Spells'!E8</f>
-        <v>0.83024298444678135</v>
+        <v>0.65681444991789817</v>
       </c>
       <c r="F9">
         <f>'High Knockback Spells'!D8  / 'High Knockback Spells'!E8</f>
-        <v>0.51853772361939332</v>
+        <v>0.75322758018107594</v>
       </c>
       <c r="G9">
         <f>'High Recoil Spells'!D8  / 'High Recoil Spells'!E8</f>
-        <v>0.75322758018107594</v>
+        <v>0.82101806239737274</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B10">
         <f>'High Damage Spells'!D9  / 'High Damage Spells'!E9</f>
-        <v>1.9530223020123643</v>
+        <v>1.7140462919465218</v>
       </c>
       <c r="C10">
         <f>'High Duration Spells'!D9  / 'High Duration Spells'!E9</f>
-        <v>1.2256403971074885</v>
+        <v>1.2612925094991094</v>
       </c>
       <c r="D10">
         <f>'High Instance Spells'!D9  / 'High Instance Spells'!E9</f>
-        <v>1.4640002342400376</v>
+        <v>1.4749460303838882</v>
       </c>
       <c r="E10">
         <f>'AOE Spells'!D9  / 'AOE Spells'!E9</f>
-        <v>1.2090339013105929</v>
+        <v>1.3199426111908177</v>
       </c>
       <c r="F10">
         <f>'High Knockback Spells'!D9  / 'High Knockback Spells'!E9</f>
-        <v>1.0571622744091216</v>
+        <v>0.92137996393455579</v>
       </c>
       <c r="G10">
         <f>'High Recoil Spells'!D9  / 'High Recoil Spells'!E9</f>
-        <v>1.0530056730680637</v>
+        <v>1.0248001639680262</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B11">
         <f>'High Damage Spells'!D10  / 'High Damage Spells'!E10</f>
@@ -21590,7 +21725,7 @@
       </c>
       <c r="C11">
         <f>'High Duration Spells'!D10  / 'High Duration Spells'!E10</f>
-        <v>0</v>
+        <v>2.4420024420024418</v>
       </c>
       <c r="D11">
         <f>'High Instance Spells'!D10  / 'High Instance Spells'!E10</f>
@@ -21606,165 +21741,165 @@
       </c>
       <c r="G11">
         <f>'High Recoil Spells'!D10  / 'High Recoil Spells'!E10</f>
-        <v>6.1162079510703373</v>
+        <v>4.7619047619047619</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B12">
         <f>'High Damage Spells'!D11  / 'High Damage Spells'!E11</f>
-        <v>2.0398449717821445</v>
+        <v>1.7239397770371223</v>
       </c>
       <c r="C12">
         <f>'High Duration Spells'!D11  / 'High Duration Spells'!E11</f>
-        <v>0.65261371794035106</v>
+        <v>0.95142952285809423</v>
       </c>
       <c r="D12">
         <f>'High Instance Spells'!D11  / 'High Instance Spells'!E11</f>
-        <v>1.3252054068380599</v>
+        <v>1.2137395314965407</v>
       </c>
       <c r="E12">
         <f>'AOE Spells'!D11  / 'AOE Spells'!E11</f>
-        <v>0.72960747118050495</v>
+        <v>1.0389610389610391</v>
       </c>
       <c r="F12">
         <f>'High Knockback Spells'!D11  / 'High Knockback Spells'!E11</f>
-        <v>1.367053998632946</v>
+        <v>1.1914690813773383</v>
       </c>
       <c r="G12">
         <f>'High Recoil Spells'!D11  / 'High Recoil Spells'!E11</f>
-        <v>2.3829381627546766</v>
+        <v>1.8552875695732838</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B13">
         <f>'High Damage Spells'!D12  / 'High Damage Spells'!E12</f>
-        <v>2.338482324971094</v>
+        <v>1.9763279826083135</v>
       </c>
       <c r="C13">
         <f>'High Duration Spells'!D12  / 'High Duration Spells'!E12</f>
-        <v>2.4938588725264039</v>
+        <v>2.0905479962551921</v>
       </c>
       <c r="D13">
         <f>'High Instance Spells'!D12  / 'High Instance Spells'!E12</f>
-        <v>1.2660150908998835</v>
+        <v>1.1595278402634446</v>
       </c>
       <c r="E13">
         <f>'AOE Spells'!D12  / 'AOE Spells'!E12</f>
-        <v>1.8122508155128667</v>
+        <v>1.5880893300248138</v>
       </c>
       <c r="F13">
         <f>'High Knockback Spells'!D12  / 'High Knockback Spells'!E12</f>
-        <v>1.0447956118584301</v>
+        <v>0.91060168006009967</v>
       </c>
       <c r="G13">
         <f>'High Recoil Spells'!D12  / 'High Recoil Spells'!E12</f>
-        <v>1.3659025200901496</v>
+        <v>1.063452676355902</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B14">
         <f>'High Damage Spells'!D13  / 'High Damage Spells'!E13</f>
-        <v>1.7379592014077467</v>
+        <v>2.0196085631403076</v>
       </c>
       <c r="C14">
         <f>'High Duration Spells'!D13  / 'High Duration Spells'!E13</f>
-        <v>1.4595800579661795</v>
+        <v>2.2798777985499976</v>
       </c>
       <c r="D14">
         <f>'High Instance Spells'!D13  / 'High Instance Spells'!E13</f>
-        <v>3.8106528918621394</v>
+        <v>3.8779229844495289</v>
       </c>
       <c r="E14">
         <f>'AOE Spells'!D13  / 'AOE Spells'!E13</f>
-        <v>1.6317777052543241</v>
+        <v>2.6556016597510372</v>
       </c>
       <c r="F14">
         <f>'High Knockback Spells'!D13  / 'High Knockback Spells'!E13</f>
-        <v>0.8735531775496832</v>
+        <v>0.76135368685522864</v>
       </c>
       <c r="G14">
         <f>'High Recoil Spells'!D13  / 'High Recoil Spells'!E13</f>
-        <v>1.5227073737104573</v>
+        <v>1.7783046828689981</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B15">
         <f>'High Damage Spells'!D14  / 'High Damage Spells'!E14</f>
-        <v>0.77564475470234628</v>
+        <v>0.65552277941658466</v>
       </c>
       <c r="C15">
         <f>'High Duration Spells'!D14  / 'High Duration Spells'!E14</f>
-        <v>0.96780197282709846</v>
+        <v>0.8682675349342015</v>
       </c>
       <c r="D15">
         <f>'High Instance Spells'!D14  / 'High Instance Spells'!E14</f>
-        <v>1.0582010582010581</v>
+        <v>0.96919349255797849</v>
       </c>
       <c r="E15">
         <f>'AOE Spells'!D14  / 'AOE Spells'!E14</f>
-        <v>0.99875156054931324</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F15">
         <f>'High Knockback Spells'!D14  / 'High Knockback Spells'!E14</f>
-        <v>1.0916179337231968</v>
+        <v>0.95141012572205241</v>
       </c>
       <c r="G15">
         <f>'High Recoil Spells'!D14  / 'High Recoil Spells'!E14</f>
-        <v>1.2232415902140674</v>
+        <v>1.0582010582010581</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <f>'High Damage Spells'!D15  / 'High Damage Spells'!E15</f>
-        <v>0.62743567041501391</v>
+        <v>0.76594039805333303</v>
       </c>
       <c r="C16">
         <f>'High Duration Spells'!D15  / 'High Duration Spells'!E15</f>
-        <v>1.3382491686127043</v>
+        <v>1.2193753871516855</v>
       </c>
       <c r="D16">
         <f>'High Instance Spells'!D15  / 'High Instance Spells'!E15</f>
-        <v>0.81523954455284109</v>
+        <v>0.87111265975583951</v>
       </c>
       <c r="E16">
         <f>'AOE Spells'!D15  / 'AOE Spells'!E15</f>
-        <v>0.6732596238722901</v>
+        <v>0.74567243675099881</v>
       </c>
       <c r="F16">
         <f>'High Knockback Spells'!D15  / 'High Knockback Spells'!E15</f>
-        <v>0.8409839512229309</v>
+        <v>0.9772902185465252</v>
       </c>
       <c r="G16">
         <f>'High Recoil Spells'!D15  / 'High Recoil Spells'!E15</f>
-        <v>0.9772902185465252</v>
+        <v>1.0462240821761462</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B17">
         <f>'High Damage Spells'!D16  / 'High Damage Spells'!E16</f>
-        <v>0.27127471990885171</v>
+        <v>0.22926314824155167</v>
       </c>
       <c r="C17">
         <f>'High Duration Spells'!D16  / 'High Duration Spells'!E16</f>
-        <v>1.3018460176530322</v>
+        <v>1.1387576154415533</v>
       </c>
       <c r="D17">
         <f>'High Instance Spells'!D16  / 'High Instance Spells'!E16</f>
@@ -21772,20 +21907,20 @@
       </c>
       <c r="E17">
         <f>'AOE Spells'!D16  / 'AOE Spells'!E16</f>
-        <v>2.0376084298771615</v>
+        <v>1.6580310880829017</v>
       </c>
       <c r="F17">
         <f>'High Knockback Spells'!D16  / 'High Knockback Spells'!E16</f>
-        <v>0.54540496318516496</v>
+        <v>0.47535294956505209</v>
       </c>
       <c r="G17">
         <f>'High Recoil Spells'!D16  / 'High Recoil Spells'!E16</f>
-        <v>0.47535294956505209</v>
+        <v>0.37009622501850481</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B18">
         <f>'High Damage Spells'!D17  / 'High Damage Spells'!E17</f>
@@ -21801,7 +21936,7 @@
       </c>
       <c r="E18">
         <f>'AOE Spells'!D17  / 'AOE Spells'!E17</f>
-        <v>5.617977528089888</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <f>'High Knockback Spells'!D17  / 'High Knockback Spells'!E17</f>
@@ -21814,131 +21949,131 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B19">
         <f>'High Damage Spells'!D18  / 'High Damage Spells'!E18</f>
-        <v>1.3110856663374384</v>
+        <v>1.403519139568898</v>
       </c>
       <c r="C19">
         <f>'High Duration Spells'!D18  / 'High Duration Spells'!E18</f>
-        <v>0.83891913658442463</v>
+        <v>0.91727971527637631</v>
       </c>
       <c r="D19">
         <f>'High Instance Spells'!D18  / 'High Instance Spells'!E18</f>
-        <v>1.0221116827365335</v>
+        <v>1.248186229385424</v>
       </c>
       <c r="E19">
         <f>'AOE Spells'!D18  / 'AOE Spells'!E18</f>
-        <v>1.1254712911031493</v>
+        <v>1.0684474123539232</v>
       </c>
       <c r="F19">
         <f>'High Knockback Spells'!D18  / 'High Knockback Spells'!E18</f>
-        <v>1.7573148229505313</v>
+        <v>1.6847651284250511</v>
       </c>
       <c r="G19">
         <f>'High Recoil Spells'!D18  / 'High Recoil Spells'!E18</f>
-        <v>1.5316046622045918</v>
+        <v>1.5502027188170762</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <f>'High Damage Spells'!D19  / 'High Damage Spells'!E19</f>
-        <v>0.66168746846645654</v>
+        <v>0.69901718184232964</v>
       </c>
       <c r="C20">
         <f>'High Duration Spells'!D19  / 'High Duration Spells'!E19</f>
-        <v>0.95263045083236075</v>
+        <v>1.0994797724655545</v>
       </c>
       <c r="D20">
         <f>'High Instance Spells'!D19  / 'High Instance Spells'!E19</f>
-        <v>2.2568269013766642</v>
+        <v>2.2146432209771003</v>
       </c>
       <c r="E20">
         <f>'AOE Spells'!D19  / 'AOE Spells'!E19</f>
-        <v>1.508777535190017</v>
+        <v>1.5165876777251184</v>
       </c>
       <c r="F20">
         <f>'High Knockback Spells'!D19  / 'High Knockback Spells'!E19</f>
-        <v>1.1640475596574373</v>
+        <v>1.1594707016247083</v>
       </c>
       <c r="G20">
         <f>'High Recoil Spells'!D19  / 'High Recoil Spells'!E19</f>
-        <v>1.1594707016247083</v>
+        <v>1.1284134506883321</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B21">
         <f>'High Damage Spells'!D20  / 'High Damage Spells'!E20</f>
-        <v>0.75124533361071621</v>
+        <v>0.83025650042001209</v>
       </c>
       <c r="C21">
         <f>'High Duration Spells'!D20  / 'High Duration Spells'!E20</f>
-        <v>0.83197444174514945</v>
+        <v>0.88947108814658471</v>
       </c>
       <c r="D21">
         <f>'High Instance Spells'!D20  / 'High Instance Spells'!E20</f>
-        <v>0.6757669955399378</v>
+        <v>0.72208124445544752</v>
       </c>
       <c r="E21">
         <f>'AOE Spells'!D20  / 'AOE Spells'!E20</f>
-        <v>0.68209440186521808</v>
+        <v>0.79470198675496673</v>
       </c>
       <c r="F21">
         <f>'High Knockback Spells'!D20  / 'High Knockback Spells'!E20</f>
-        <v>0.69710700592540953</v>
+        <v>0.81009376835368696</v>
       </c>
       <c r="G21">
         <f>'High Recoil Spells'!D20  / 'High Recoil Spells'!E20</f>
-        <v>1.1138789314863196</v>
+        <v>1.1825922421948911</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B22">
         <f>'High Damage Spells'!D21  / 'High Damage Spells'!E21</f>
-        <v>0.37939145610440855</v>
+        <v>0.32063614210593822</v>
       </c>
       <c r="C22">
         <f>'High Duration Spells'!D21  / 'High Duration Spells'!E21</f>
-        <v>0.54620930740659823</v>
+        <v>0.66358762010935934</v>
       </c>
       <c r="D22">
         <f>'High Instance Spells'!D21  / 'High Instance Spells'!E21</f>
-        <v>1.4788524105294294</v>
+        <v>1.3544629554381686</v>
       </c>
       <c r="E22">
         <f>'AOE Spells'!D21  / 'AOE Spells'!E21</f>
-        <v>1.0177495521901969</v>
+        <v>0.86956521739130443</v>
       </c>
       <c r="F22">
         <f>'High Knockback Spells'!D21  / 'High Knockback Spells'!E21</f>
-        <v>2.2883295194508011</v>
+        <v>1.9944156362185883</v>
       </c>
       <c r="G22">
         <f>'High Recoil Spells'!D21  / 'High Recoil Spells'!E21</f>
-        <v>0.99720781810929415</v>
+        <v>0.77639751552795033</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B23">
         <f>'High Damage Spells'!D22  / 'High Damage Spells'!E22</f>
-        <v>0.53424511165722832</v>
+        <v>0.9030160736861117</v>
       </c>
       <c r="C23">
         <f>'High Duration Spells'!D22  / 'High Duration Spells'!E22</f>
-        <v>0</v>
+        <v>0.74755176795993117</v>
       </c>
       <c r="D23">
         <f>'High Instance Spells'!D22  / 'High Instance Spells'!E22</f>
@@ -21946,57 +22081,57 @@
       </c>
       <c r="E23">
         <f>'AOE Spells'!D22  / 'AOE Spells'!E22</f>
-        <v>1.1465260261407935</v>
+        <v>1.2244897959183674</v>
       </c>
       <c r="F23">
         <f>'High Knockback Spells'!D22  / 'High Knockback Spells'!E22</f>
-        <v>1.0741138560687433</v>
+        <v>0.93615427822505159</v>
       </c>
       <c r="G23">
         <f>'High Recoil Spells'!D22  / 'High Recoil Spells'!E22</f>
-        <v>0.93615427822505159</v>
+        <v>0.72886297376093301</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B24">
         <f>'High Damage Spells'!D23  / 'High Damage Spells'!E23</f>
-        <v>1.1092377318306859</v>
+        <v>1.1249437528123596</v>
       </c>
       <c r="C24">
         <f>'High Duration Spells'!D23  / 'High Duration Spells'!E23</f>
-        <v>0.42585810407972063</v>
+        <v>0.46563605885639792</v>
       </c>
       <c r="D24">
         <f>'High Instance Spells'!D23  / 'High Instance Spells'!E23</f>
-        <v>0.43237634036665518</v>
+        <v>0.39600823697132898</v>
       </c>
       <c r="E24">
         <f>'AOE Spells'!D23  / 'AOE Spells'!E23</f>
-        <v>0.47609979051609225</v>
+        <v>0.50847457627118642</v>
       </c>
       <c r="F24">
         <f>'High Knockback Spells'!D23  / 'High Knockback Spells'!E23</f>
-        <v>1.3380909901873328</v>
+        <v>1.5549681231534755</v>
       </c>
       <c r="G24">
         <f>'High Recoil Spells'!D23  / 'High Recoil Spells'!E23</f>
-        <v>0.77748406157673777</v>
+        <v>0.90799031476997583</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B25">
         <f>'High Damage Spells'!D24  / 'High Damage Spells'!E24</f>
-        <v>6.9808027923211169</v>
+        <v>8.8495575221238951</v>
       </c>
       <c r="C25">
         <f>'High Duration Spells'!D24  / 'High Duration Spells'!E24</f>
-        <v>0</v>
+        <v>4.8840048840048835</v>
       </c>
       <c r="D25">
         <f>'High Instance Spells'!D24  / 'High Instance Spells'!E24</f>
@@ -22004,7 +22139,7 @@
       </c>
       <c r="E25">
         <f>'AOE Spells'!D24  / 'AOE Spells'!E24</f>
-        <v>0</v>
+        <v>5.3333333333333339</v>
       </c>
       <c r="F25">
         <f>'High Knockback Spells'!D24  / 'High Knockback Spells'!E24</f>
@@ -22017,23 +22152,23 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B26">
         <f>'High Damage Spells'!D25  / 'High Damage Spells'!E25</f>
-        <v>0.26576660376857042</v>
+        <v>0.44921611787430937</v>
       </c>
       <c r="C26">
         <f>'High Duration Spells'!D25  / 'High Duration Spells'!E25</f>
-        <v>0</v>
+        <v>0.18593927223368847</v>
       </c>
       <c r="D26">
         <f>'High Instance Spells'!D25  / 'High Instance Spells'!E25</f>
-        <v>0.51797368693670365</v>
+        <v>0.47440580672707428</v>
       </c>
       <c r="E26">
         <f>'AOE Spells'!D25  / 'AOE Spells'!E25</f>
-        <v>0.57035304853704449</v>
+        <v>0.60913705583756339</v>
       </c>
       <c r="F26">
         <f>'High Knockback Spells'!D25  / 'High Knockback Spells'!E25</f>
@@ -22041,12 +22176,12 @@
       </c>
       <c r="G26">
         <f>'High Recoil Spells'!D25  / 'High Recoil Spells'!E25</f>
-        <v>0.46570111302566014</v>
+        <v>0.36258158085569253</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B27">
         <f>'High Damage Spells'!D26  / 'High Damage Spells'!E26</f>
